--- a/Possibiladades.xlsx
+++ b/Possibiladades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="276">
   <si>
     <t>organization_id</t>
   </si>
@@ -34,24 +34,24 @@
     <t>d3400673-a5b2-4914-bf57-ce98dc710603</t>
   </si>
   <si>
+    <t>9e3e7a95-c6f5-4b6f-b189-8f33e45ee425</t>
+  </si>
+  <si>
     <t>347ceb13-8656-4ed0-b080-c6cfb5528b25</t>
   </si>
   <si>
-    <t>9e3e7a95-c6f5-4b6f-b189-8f33e45ee425</t>
+    <t>50ca2381-2d91-4d7e-8300-bb625d5cb97f</t>
   </si>
   <si>
     <t>abba8235-15bd-4285-90b4-104e9308013e</t>
   </si>
   <si>
-    <t>50ca2381-2d91-4d7e-8300-bb625d5cb97f</t>
+    <t>6019ee26-09c3-422e-8c25-0abe878d1a73</t>
   </si>
   <si>
     <t>c8c88852-b101-4b47-aaca-4cee45368c9f</t>
   </si>
   <si>
-    <t>6019ee26-09c3-422e-8c25-0abe878d1a73</t>
-  </si>
-  <si>
     <t>071250db-e54d-4d3a-a179-d1546ba79c63</t>
   </si>
   <si>
@@ -61,76 +61,787 @@
     <t>0780e259-6a78-4fcd-b8f3-689cc21c7ecf</t>
   </si>
   <si>
+    <t>c5b694a6-ecb4-427e-b517-b74e76b00861</t>
+  </si>
+  <si>
     <t>98f3a814-35d8-4bbe-8e1e-45796305b021</t>
   </si>
   <si>
-    <t>c5b694a6-ecb4-427e-b517-b74e76b00861</t>
-  </si>
-  <si>
     <t>6042fbe2-b932-40bf-8fe9-f0f7dc870a49</t>
   </si>
   <si>
     <t>f45c0788-7955-436a-a4a9-b400464ef36d</t>
   </si>
   <si>
+    <t>1ef5051a-b5d5-4b85-bca6-93868a8a4b73</t>
+  </si>
+  <si>
     <t>cbdf1fac-5e6a-4d10-9aae-570fda653d2a</t>
   </si>
   <si>
-    <t>1ef5051a-b5d5-4b85-bca6-93868a8a4b73</t>
+    <t>d3d18ee4-38e5-4c53-8eea-4b17a53942f5</t>
   </si>
   <si>
     <t>0cf8cd81-3cd6-419f-9cda-19d95d3bb2c0</t>
   </si>
   <si>
-    <t>{'home-hall', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'handleOpenPrezziModalSRG-hall', 'onboarding-skip', 'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleDeleteDesafioSRG-hall', 'home-hall', 'handleOpenModalSRG-hall'}</t>
+    <t>0c2d4ff5-fd82-46f4-a315-8d82d1d53365</t>
+  </si>
+  <si>
+    <t>7da5a3d1-5507-4619-b494-613641b6fa82</t>
+  </si>
+  <si>
+    <t>36804598-46f8-41f2-879a-41f0c3ec7bb4</t>
+  </si>
+  <si>
+    <t>f5b8e2b2-f878-49f3-9861-5e167dd48555</t>
+  </si>
+  <si>
+    <t>72b3ebf2-3150-49e7-96ff-b0a1dc4d1077</t>
+  </si>
+  <si>
+    <t>2ff14b77-598a-48f7-aa84-227c24a7fbc8</t>
+  </si>
+  <si>
+    <t>8c75d354-0e26-4cd4-9a63-2e062e743221</t>
+  </si>
+  <si>
+    <t>addcf412-b947-45a4-aa75-bb9b952d5485</t>
+  </si>
+  <si>
+    <t>df1824f3-5ed3-4933-b34c-9f23f62aa83a</t>
+  </si>
+  <si>
+    <t>45425d18-bda1-49cb-8296-8b853e44e778</t>
+  </si>
+  <si>
+    <t>4996aa4f-9bcf-48f7-8d69-c95cc9d3a2e7</t>
+  </si>
+  <si>
+    <t>9ff3797a-fbf9-4aac-9eee-04f36c55d523</t>
+  </si>
+  <si>
+    <t>9608a4ae-89f9-4766-86d8-a1e5257af0ac</t>
+  </si>
+  <si>
+    <t>df2765f9-86ff-4493-9703-2ed346e3f29e</t>
+  </si>
+  <si>
+    <t>e0a5c155-dc50-410e-b252-633f7250614c</t>
+  </si>
+  <si>
+    <t>189dee0d-2180-4910-9cc5-987ac4248973</t>
+  </si>
+  <si>
+    <t>1970d173-b95f-424e-975e-f7fbb872af0c</t>
+  </si>
+  <si>
+    <t>12591d5e-e466-4360-a2e6-25d40c1eb5c0</t>
+  </si>
+  <si>
+    <t>f3026908-1046-41d5-b926-3f1a951b54a0</t>
+  </si>
+  <si>
+    <t>ccf7d3c0-61b0-4eb8-a7a7-730a637a0755</t>
+  </si>
+  <si>
+    <t>1dc4a8f0-9d63-4e18-8c71-21e874a56841</t>
+  </si>
+  <si>
+    <t>489ba007-5e4b-41cb-b765-000465201bfd</t>
+  </si>
+  <si>
+    <t>8ef6da88-4a09-443e-a776-84dcac6228f7</t>
+  </si>
+  <si>
+    <t>2917097f-ab4f-473b-8ead-357232bc75bb</t>
+  </si>
+  <si>
+    <t>ea4143d5-dd4b-435a-9586-c0f05a0eb6a7</t>
+  </si>
+  <si>
+    <t>8ce3edc8-fba6-4a72-949e-2a7519d19557</t>
+  </si>
+  <si>
+    <t>646ec923-34d3-4b18-bc9d-c5936d0ddb22</t>
+  </si>
+  <si>
+    <t>69eee2a3-69ac-4b50-bf99-41bdfeb81940</t>
+  </si>
+  <si>
+    <t>96079fe6-864f-4d33-b1cb-b771e4c7986e</t>
+  </si>
+  <si>
+    <t>59ff77f2-dc07-4bf0-be38-f0a86f2dedb4</t>
+  </si>
+  <si>
+    <t>f71d3d44-562f-4079-a01f-b7954d2e3bff</t>
+  </si>
+  <si>
+    <t>82004687-888b-49c7-96fc-9644e1b663e8</t>
+  </si>
+  <si>
+    <t>dd8404a3-bb79-482b-a458-07dd346e97ce</t>
+  </si>
+  <si>
+    <t>e76fdb5e-a9a8-4485-b797-b67c1437b005</t>
+  </si>
+  <si>
+    <t>21d5a776-be4e-4017-aae3-668a7f73af37</t>
+  </si>
+  <si>
+    <t>08d5398e-bc13-44b8-87ca-301471b70666</t>
+  </si>
+  <si>
+    <t>84549ead-06e3-4700-b16d-fbac46edfa8c</t>
+  </si>
+  <si>
+    <t>9e518af7-7460-468a-a7af-44b661230725</t>
+  </si>
+  <si>
+    <t>cfe14a38-1689-4784-a2a5-bbb49da847bf</t>
+  </si>
+  <si>
+    <t>77272765-1f0e-4386-8623-d2d3792e9d31</t>
+  </si>
+  <si>
+    <t>0ed19166-6db9-458c-8368-6c8708ea671e</t>
+  </si>
+  <si>
+    <t>c5ea6189-2fa4-4a15-a533-d2728fd7b5d7</t>
+  </si>
+  <si>
+    <t>8a4b1a9b-c806-49a4-8310-8112f7eb6282</t>
+  </si>
+  <si>
+    <t>771c7171-5783-4135-a60c-fbc64223f29c</t>
+  </si>
+  <si>
+    <t>ec4e5dfd-0fef-4333-932f-cb23348dbb99</t>
+  </si>
+  <si>
+    <t>72bb1fc6-387f-4803-b509-9e52b3086ef7</t>
+  </si>
+  <si>
+    <t>0a568782-098d-411c-b3a6-3451ee4b0e40</t>
+  </si>
+  <si>
+    <t>2cfadde1-08f8-4818-a05b-d7112cbec00f</t>
+  </si>
+  <si>
+    <t>a6263f96-67c3-4bc2-a8f7-2d8acb1e9aac</t>
+  </si>
+  <si>
+    <t>f8ba47ef-7c36-4f25-8fbf-d74b4fb57795</t>
+  </si>
+  <si>
+    <t>187f9026-e464-40b1-be39-c33c938a6506</t>
+  </si>
+  <si>
+    <t>a97a7a66-28ec-49d9-be25-28b84fababf5</t>
+  </si>
+  <si>
+    <t>dad272bc-3d45-41a7-8cce-9acb75e5944d</t>
+  </si>
+  <si>
+    <t>0afa79ef-9e2b-40e0-b74f-2a268de35be6</t>
+  </si>
+  <si>
+    <t>71a06067-4003-4d41-9ccf-f1a49cd2d655</t>
+  </si>
+  <si>
+    <t>cdd82576-4706-42b2-9901-59288a39fc99</t>
+  </si>
+  <si>
+    <t>9d60be92-fb7b-4b94-9f22-70648342427d</t>
+  </si>
+  <si>
+    <t>12ad66a6-955b-4595-a5a6-8da14068d918</t>
+  </si>
+  <si>
+    <t>67411823-7bc5-4892-bef5-7765708e4a31</t>
+  </si>
+  <si>
+    <t>07c6480a-52ec-4f70-b862-78ac439700f8</t>
+  </si>
+  <si>
+    <t>7e30dcfb-b5f0-47f6-9ab3-7c29bfb8e860</t>
+  </si>
+  <si>
+    <t>dcb9eca3-de8d-46eb-8a23-252330b91054</t>
+  </si>
+  <si>
+    <t>e258e763-43c4-4bef-b223-0ac855b23cea</t>
+  </si>
+  <si>
+    <t>58ce156d-8fe6-4f75-9e3a-73b28069df42</t>
+  </si>
+  <si>
+    <t>9d77f9f6-84ce-48a6-b342-20a32771f8e3</t>
+  </si>
+  <si>
+    <t>7a1629f7-2625-4955-8bed-075ae9724814</t>
+  </si>
+  <si>
+    <t>e5e782b4-8cfa-4628-b994-7175b0e34de0</t>
+  </si>
+  <si>
+    <t>63aa755c-fa6c-4ece-a5a3-1cf08d845487</t>
+  </si>
+  <si>
+    <t>edf370af-f483-4d65-8646-69fa8af1d520</t>
+  </si>
+  <si>
+    <t>fd3b7738-3726-4374-a271-3c011bc002ef</t>
+  </si>
+  <si>
+    <t>3c653da7-357e-45ed-a14e-e1f60423a8e3</t>
+  </si>
+  <si>
+    <t>9981928d-9dc1-4d39-847c-9ea2f54988ac</t>
+  </si>
+  <si>
+    <t>e86ac7bd-038f-43cf-936a-a8cc687db2a8</t>
+  </si>
+  <si>
+    <t>19d773d0-795e-410c-a471-ef89c5e1c852</t>
+  </si>
+  <si>
+    <t>32007fb7-6c6f-45a8-9367-6cce6149a54c</t>
+  </si>
+  <si>
+    <t>cf003aca-8e47-4bf8-8ad6-8f3e6edd653e</t>
+  </si>
+  <si>
+    <t>2c62fda4-189b-4254-9160-124e95ea1789</t>
+  </si>
+  <si>
+    <t>5741d897-8f4b-4aba-976e-be1ec160184a</t>
+  </si>
+  <si>
+    <t>f96d43c5-322d-4d46-ab7f-a418d8384070</t>
+  </si>
+  <si>
+    <t>3eb23ab5-e311-47a0-ae00-baef94d56052</t>
+  </si>
+  <si>
+    <t>3efffa7a-7d1c-417f-bbf4-053e80a84ebd</t>
+  </si>
+  <si>
+    <t>45de816d-89d9-4cb2-9b15-94def4b4f233</t>
+  </si>
+  <si>
+    <t>f5d53e4d-c3ba-44e6-a1dd-b087680f2e90</t>
+  </si>
+  <si>
+    <t>6ffd6833-10e9-4093-9dd1-67010134642f</t>
+  </si>
+  <si>
+    <t>170571cf-c646-4846-8085-2855cb48c94c</t>
+  </si>
+  <si>
+    <t>36f1d211-a4ac-4fcd-b60e-b5d879c14348</t>
+  </si>
+  <si>
+    <t>47413072-31e0-4fb8-af1d-aa8f830becfc</t>
+  </si>
+  <si>
+    <t>260b91de-0558-47b0-877f-cd632f772fd5</t>
+  </si>
+  <si>
+    <t>6bfa313f-de58-4d5f-95cb-daf9a0b64127</t>
+  </si>
+  <si>
+    <t>f38aafbf-cd75-4bfd-b512-dd98dfaa2cf6</t>
+  </si>
+  <si>
+    <t>211d9d4a-5ca8-452a-9171-7bbc4472f04b</t>
+  </si>
+  <si>
+    <t>0d262439-0a58-4a79-8451-56456926c264</t>
+  </si>
+  <si>
+    <t>e76e4bbb-f42b-4d97-9406-4447331f1611</t>
+  </si>
+  <si>
+    <t>bef3933b-1491-4054-b524-ee848fd7d9bb</t>
+  </si>
+  <si>
+    <t>060c3beb-824c-4a83-a0a5-33745086b001</t>
+  </si>
+  <si>
+    <t>448168da-cd91-433b-8bb0-a8e2c834b09f</t>
+  </si>
+  <si>
+    <t>386f1219-e161-4582-8664-c814c7c531c3</t>
+  </si>
+  <si>
+    <t>e38249b6-79bc-40e5-bc52-0ca5e36bf6bc</t>
+  </si>
+  <si>
+    <t>3db827e1-c64f-4a01-b9ac-bec676d32380</t>
+  </si>
+  <si>
+    <t>33a0c64a-ba3b-47ff-ac0e-f231fa47f907</t>
+  </si>
+  <si>
+    <t>23cc5646-d288-455a-8309-a0710a29f7a0</t>
+  </si>
+  <si>
+    <t>02fce76c-1260-42e1-bf7e-80a0474dbaa9</t>
+  </si>
+  <si>
+    <t>ad5fdf9a-6e56-4f89-916b-a7c053779063</t>
+  </si>
+  <si>
+    <t>63c7bcff-f3cc-41ed-861b-b2311ac7124e</t>
+  </si>
+  <si>
+    <t>abd190d9-59a7-4753-904e-502c9f2dbbf2</t>
+  </si>
+  <si>
+    <t>ed5fb87b-a1f6-427a-9d20-1294df424c10</t>
+  </si>
+  <si>
+    <t>8660f80d-970f-486b-b45e-9e127c9854b5</t>
+  </si>
+  <si>
+    <t>020e3175-851a-4805-87aa-512ee3096e14</t>
+  </si>
+  <si>
+    <t>5b241306-964f-4336-9595-1edca69006f1</t>
+  </si>
+  <si>
+    <t>172e9e7d-06cd-4167-9a87-7066e25f9b34</t>
+  </si>
+  <si>
+    <t>699f8832-78c8-4682-a67d-f4ba248cd694</t>
+  </si>
+  <si>
+    <t>76490d78-8ebb-44f8-b95a-5d66de30f934</t>
+  </si>
+  <si>
+    <t>35c9e8eb-27aa-46d5-9a2f-6bfa8be1d8ef</t>
+  </si>
+  <si>
+    <t>14fc66a0-1af7-4bbb-a6e3-a685910d6ac2</t>
+  </si>
+  <si>
+    <t>c26966a2-cff3-4c98-a736-6bf469e50268</t>
+  </si>
+  <si>
+    <t>a9443188-23ae-41d2-93c6-8707c37539b1</t>
+  </si>
+  <si>
+    <t>11d195b4-4f96-45e4-8a63-b1eb9a460364</t>
+  </si>
+  <si>
+    <t>e9b4201f-3e62-4ce8-bfd0-922bd51404b3</t>
+  </si>
+  <si>
+    <t>ca4dba71-ab3f-4d8c-b480-618ca9c948ff</t>
+  </si>
+  <si>
+    <t>6940b588-ec7a-4859-90f2-f7bd83256af8</t>
+  </si>
+  <si>
+    <t>a4e943a3-b793-42df-a009-f62c139c4d51</t>
+  </si>
+  <si>
+    <t>6d4e7221-0b65-489a-a5c1-7ee65f49047b</t>
+  </si>
+  <si>
+    <t>c873af48-b59f-48af-a0a9-70171c1144f6</t>
+  </si>
+  <si>
+    <t>0a1de85a-63f3-4db8-b3d1-5ecec67a2b3e</t>
+  </si>
+  <si>
+    <t>d2c48084-a486-4459-a779-f9ae23ee0ca5</t>
+  </si>
+  <si>
+    <t>7f7ddce9-efb2-445d-b475-8942a226b6cd</t>
+  </si>
+  <si>
+    <t>5ff55565-ea21-4a2b-89c3-c65abc6d8ce5</t>
+  </si>
+  <si>
+    <t>c208f18c-2e5d-4970-b036-ae16f81620c9</t>
+  </si>
+  <si>
+    <t>59aae588-31e1-447f-a132-516d7e4dd1aa</t>
+  </si>
+  <si>
+    <t>cb6311dd-5ea5-43c7-8297-3b8e4a88fe18</t>
+  </si>
+  <si>
+    <t>0fc021c9-0dfe-4c0a-8157-1803dbde391f</t>
+  </si>
+  <si>
+    <t>b5ffb756-3dcd-491c-b565-ffea5dd1253d</t>
+  </si>
+  <si>
+    <t>02a9977b-c1d5-49e0-99dc-19ea351c10f5</t>
+  </si>
+  <si>
+    <t>d9f5e542-3245-4c55-b271-3200c2651c25</t>
+  </si>
+  <si>
+    <t>38ef7f80-28a1-42b5-8e8d-04ae5e7ddf5a</t>
+  </si>
+  <si>
+    <t>1a96945b-937f-4e34-9774-f5b235c631a4</t>
+  </si>
+  <si>
+    <t>357c9ce5-f247-45b9-ad48-6bc4cfb561e0</t>
+  </si>
+  <si>
+    <t>db47ba44-7171-4262-a244-a3d23b274551</t>
+  </si>
+  <si>
+    <t>878604cb-faab-45ff-aa50-1f012281d7e0</t>
+  </si>
+  <si>
+    <t>1a39a48b-5866-4aad-9001-472107080a65</t>
+  </si>
+  <si>
+    <t>168278eb-e8bc-4a46-b26b-94efbb0299b5</t>
+  </si>
+  <si>
+    <t>f99b1b79-7158-4ae7-80eb-609f5101109b</t>
+  </si>
+  <si>
+    <t>387152e1-70d3-4020-9bae-e6aa054272ef</t>
+  </si>
+  <si>
+    <t>04c7baba-0577-4228-a6d4-0021bfa53eb1</t>
+  </si>
+  <si>
+    <t>d57d8259-5eba-4bc4-a880-a2e8d97cea8f</t>
+  </si>
+  <si>
+    <t>76af1d5d-bbbc-46ad-9b15-ebd135bb9681</t>
+  </si>
+  <si>
+    <t>8916bb5a-a71e-470e-8e42-b6cce176ce75</t>
+  </si>
+  <si>
+    <t>3b97c7f6-00a6-4eb0-a1ae-8bb1da0875ec</t>
+  </si>
+  <si>
+    <t>369802d5-3c4d-405e-a212-0cb17cf2b319</t>
+  </si>
+  <si>
+    <t>6ab67570-2467-46f5-8c69-aa0607d80598</t>
+  </si>
+  <si>
+    <t>c979689c-b171-489e-81fe-34355d76b900</t>
+  </si>
+  <si>
+    <t>df55cc76-7eca-44e7-be85-736479f1445b</t>
+  </si>
+  <si>
+    <t>89bdf2a2-6f66-4f57-8eb3-8e944263bd08</t>
+  </si>
+  <si>
+    <t>9300a0a6-6813-444a-984b-28069140a283</t>
+  </si>
+  <si>
+    <t>75980f41-4033-4dd5-aca3-e3db0d9c4055</t>
+  </si>
+  <si>
+    <t>0fa62880-9251-474f-afd9-bfa2f5b3ca07</t>
+  </si>
+  <si>
+    <t>1aba4333-bad7-4087-b179-9e7b2b8148c8</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall', 'handle-busc-semantica-hall'}</t>
   </si>
   <si>
     <t>{'home-hall'}</t>
   </si>
   <si>
-    <t>{'home-hall', 'acessar meus desafios-hall', 'handle-busc-semantica-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Step 2', 'onboarding-skip', 'onboarding-to Community', 'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleCloseDesafioModalSRG-hall', 'modal-SRG'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'click em trilhas-lxp', 'ver canais-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-skip', 'onboarding-to Community', 'home-hall', 'criar conteúdo-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Profile', 'click em trilhas-lxp', 'onboarding-skip', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'criar conteúdo-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Step 2', 'onboarding-to Community', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'onboardingAdmin-skip'}</t>
+    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'onboarding-skip', 'ver canais-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-skip', 'onboarding-to Profile', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'ver canais-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'handle-busc-semantica-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'onboardingAdmin-to Step 2', 'onboardingAdmin-to Step 3'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'home-hall', 'home-hall-manager', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'seta carrossel canais-lxp', 'modal-SRG', 'home-hall', 'ver canais-lxp', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'ver canais-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'modal-SRG', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'handleOpenModalSRG-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-to Step 1', 'onboarding-to Profile', 'onboarding-skip', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Challenge', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'onboarding-to Profile', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'onboarding-skip', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'criar conteúdo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'onboarding-to Step 2', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'handleOpenModalSRG-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'ver canais-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'criar conteúdo-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall', 'onboarding-to Profile', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall-manager', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'seta carrossel canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'onboarding-to Profile', 'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'criar conteúdo-lxp', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'click em trilhas-lxp', 'ver canais-lxp', 'home-hall', 'botão carrossel meus desafios-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'seta carrossel canais-lxp', 'click em trilhas-lxp', 'ver canais-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'onboardingAdmin-to Step 4', 'modal-SRG', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboarding-to Challenge', 'onboarding-skip', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Community', 'home-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Profile', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'clickNotification-hall', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'home-hall', 'onboardingAdmin-skip', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-to Profile', 'onboarding-skip', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'home-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'onboardingAdmin-skip', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp', 'seta carrossel canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'onboardingAdmin-to Step 4', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleDeleteDesafioSRG-hall', 'modal-SRG', 'handleEditDetaisSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'home-hall', 'home-hall-manager', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'click em trilhas-lxp', 'ver canais-lxp', 'onboardingAdmin-skip', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'home-hall-manager', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'onboarding-to Step 2', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall', 'botão carrossel meus desafios-hall', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall', 'handle-busc-semantica-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-to Profile', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'clickNotification-hall', 'acessar meus desafios-hall', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'click em trilhas-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'click em trilhas-lxp', 'ver canais-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall-manager', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall'}</t>
   </si>
 </sst>
 </file>
@@ -488,7 +1199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -510,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -521,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -532,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -543,7 +1254,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -554,7 +1265,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -565,7 +1276,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -576,7 +1287,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -587,7 +1298,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -598,7 +1309,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -609,7 +1320,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -620,7 +1331,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -631,7 +1342,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -642,7 +1353,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -653,7 +1364,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -664,7 +1375,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -675,7 +1386,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -686,7 +1397,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -697,7 +1408,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -708,7 +1419,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -719,7 +1430,1745 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>82</v>
+      </c>
+      <c r="C82" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>88</v>
+      </c>
+      <c r="C88" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>90</v>
+      </c>
+      <c r="C90" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>93</v>
+      </c>
+      <c r="C93" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
+      </c>
+      <c r="C96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>97</v>
+      </c>
+      <c r="C97" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>98</v>
+      </c>
+      <c r="C98" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>99</v>
+      </c>
+      <c r="C99" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>101</v>
+      </c>
+      <c r="C101" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>102</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>105</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>113</v>
+      </c>
+      <c r="C113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>116</v>
+      </c>
+      <c r="C116" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>117</v>
+      </c>
+      <c r="C117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>120</v>
+      </c>
+      <c r="C120" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>125</v>
+      </c>
+      <c r="C125" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>128</v>
+      </c>
+      <c r="C128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>129</v>
+      </c>
+      <c r="C129" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>130</v>
+      </c>
+      <c r="C130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>131</v>
+      </c>
+      <c r="C131" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>132</v>
+      </c>
+      <c r="C132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>133</v>
+      </c>
+      <c r="C133" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>134</v>
+      </c>
+      <c r="C134" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>135</v>
+      </c>
+      <c r="C135" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>138</v>
+      </c>
+      <c r="C138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>139</v>
+      </c>
+      <c r="C139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>143</v>
+      </c>
+      <c r="C143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>145</v>
+      </c>
+      <c r="C145" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>146</v>
+      </c>
+      <c r="C146" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>147</v>
+      </c>
+      <c r="C147" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>149</v>
+      </c>
+      <c r="C149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>151</v>
+      </c>
+      <c r="C151" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>152</v>
+      </c>
+      <c r="C152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>153</v>
+      </c>
+      <c r="C153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>154</v>
+      </c>
+      <c r="C154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>155</v>
+      </c>
+      <c r="C155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>156</v>
+      </c>
+      <c r="C156" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>160</v>
+      </c>
+      <c r="C160" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>161</v>
+      </c>
+      <c r="C161" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>162</v>
+      </c>
+      <c r="C162" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>163</v>
+      </c>
+      <c r="C163" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>165</v>
+      </c>
+      <c r="C165" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>167</v>
+      </c>
+      <c r="C167" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>168</v>
+      </c>
+      <c r="C168" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>169</v>
+      </c>
+      <c r="C169" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
+        <v>171</v>
+      </c>
+      <c r="C171" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>172</v>
+      </c>
+      <c r="C172" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
+        <v>177</v>
+      </c>
+      <c r="C177" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>178</v>
+      </c>
+      <c r="C178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/Possibiladades.xlsx
+++ b/Possibiladades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="277">
   <si>
     <t>organization_id</t>
   </si>
@@ -28,12 +28,12 @@
     <t>4adb5f9b-f50a-4957-a7e3-94c3452d877c</t>
   </si>
   <si>
+    <t>d3400673-a5b2-4914-bf57-ce98dc710603</t>
+  </si>
+  <si>
     <t>c81fa8b0-52c0-4a31-abb7-6776a76cc9c8</t>
   </si>
   <si>
-    <t>d3400673-a5b2-4914-bf57-ce98dc710603</t>
-  </si>
-  <si>
     <t>9e3e7a95-c6f5-4b6f-b189-8f33e45ee425</t>
   </si>
   <si>
@@ -46,12 +46,12 @@
     <t>abba8235-15bd-4285-90b4-104e9308013e</t>
   </si>
   <si>
+    <t>c8c88852-b101-4b47-aaca-4cee45368c9f</t>
+  </si>
+  <si>
     <t>6019ee26-09c3-422e-8c25-0abe878d1a73</t>
   </si>
   <si>
-    <t>c8c88852-b101-4b47-aaca-4cee45368c9f</t>
-  </si>
-  <si>
     <t>071250db-e54d-4d3a-a179-d1546ba79c63</t>
   </si>
   <si>
@@ -61,12 +61,12 @@
     <t>0780e259-6a78-4fcd-b8f3-689cc21c7ecf</t>
   </si>
   <si>
+    <t>98f3a814-35d8-4bbe-8e1e-45796305b021</t>
+  </si>
+  <si>
     <t>c5b694a6-ecb4-427e-b517-b74e76b00861</t>
   </si>
   <si>
-    <t>98f3a814-35d8-4bbe-8e1e-45796305b021</t>
-  </si>
-  <si>
     <t>6042fbe2-b932-40bf-8fe9-f0f7dc870a49</t>
   </si>
   <si>
@@ -85,79 +85,82 @@
     <t>0cf8cd81-3cd6-419f-9cda-19d95d3bb2c0</t>
   </si>
   <si>
+    <t>7da5a3d1-5507-4619-b494-613641b6fa82</t>
+  </si>
+  <si>
     <t>0c2d4ff5-fd82-46f4-a315-8d82d1d53365</t>
   </si>
   <si>
-    <t>7da5a3d1-5507-4619-b494-613641b6fa82</t>
-  </si>
-  <si>
     <t>36804598-46f8-41f2-879a-41f0c3ec7bb4</t>
   </si>
   <si>
+    <t>72b3ebf2-3150-49e7-96ff-b0a1dc4d1077</t>
+  </si>
+  <si>
     <t>f5b8e2b2-f878-49f3-9861-5e167dd48555</t>
   </si>
   <si>
-    <t>72b3ebf2-3150-49e7-96ff-b0a1dc4d1077</t>
+    <t>8c75d354-0e26-4cd4-9a63-2e062e743221</t>
+  </si>
+  <si>
+    <t>addcf412-b947-45a4-aa75-bb9b952d5485</t>
   </si>
   <si>
     <t>2ff14b77-598a-48f7-aa84-227c24a7fbc8</t>
   </si>
   <si>
-    <t>8c75d354-0e26-4cd4-9a63-2e062e743221</t>
-  </si>
-  <si>
-    <t>addcf412-b947-45a4-aa75-bb9b952d5485</t>
-  </si>
-  <si>
     <t>df1824f3-5ed3-4933-b34c-9f23f62aa83a</t>
   </si>
   <si>
+    <t>4996aa4f-9bcf-48f7-8d69-c95cc9d3a2e7</t>
+  </si>
+  <si>
     <t>45425d18-bda1-49cb-8296-8b853e44e778</t>
   </si>
   <si>
-    <t>4996aa4f-9bcf-48f7-8d69-c95cc9d3a2e7</t>
+    <t>e0a5c155-dc50-410e-b252-633f7250614c</t>
+  </si>
+  <si>
+    <t>df2765f9-86ff-4493-9703-2ed346e3f29e</t>
   </si>
   <si>
     <t>9ff3797a-fbf9-4aac-9eee-04f36c55d523</t>
   </si>
   <si>
+    <t>12591d5e-e466-4360-a2e6-25d40c1eb5c0</t>
+  </si>
+  <si>
     <t>9608a4ae-89f9-4766-86d8-a1e5257af0ac</t>
   </si>
   <si>
-    <t>df2765f9-86ff-4493-9703-2ed346e3f29e</t>
-  </si>
-  <si>
-    <t>e0a5c155-dc50-410e-b252-633f7250614c</t>
-  </si>
-  <si>
     <t>189dee0d-2180-4910-9cc5-987ac4248973</t>
   </si>
   <si>
     <t>1970d173-b95f-424e-975e-f7fbb872af0c</t>
   </si>
   <si>
-    <t>12591d5e-e466-4360-a2e6-25d40c1eb5c0</t>
-  </si>
-  <si>
     <t>f3026908-1046-41d5-b926-3f1a951b54a0</t>
   </si>
   <si>
+    <t>8ef6da88-4a09-443e-a776-84dcac6228f7</t>
+  </si>
+  <si>
+    <t>489ba007-5e4b-41cb-b765-000465201bfd</t>
+  </si>
+  <si>
+    <t>1dc4a8f0-9d63-4e18-8c71-21e874a56841</t>
+  </si>
+  <si>
+    <t>2917097f-ab4f-473b-8ead-357232bc75bb</t>
+  </si>
+  <si>
+    <t>ea4143d5-dd4b-435a-9586-c0f05a0eb6a7</t>
+  </si>
+  <si>
     <t>ccf7d3c0-61b0-4eb8-a7a7-730a637a0755</t>
   </si>
   <si>
-    <t>1dc4a8f0-9d63-4e18-8c71-21e874a56841</t>
-  </si>
-  <si>
-    <t>489ba007-5e4b-41cb-b765-000465201bfd</t>
-  </si>
-  <si>
-    <t>8ef6da88-4a09-443e-a776-84dcac6228f7</t>
-  </si>
-  <si>
-    <t>2917097f-ab4f-473b-8ead-357232bc75bb</t>
-  </si>
-  <si>
-    <t>ea4143d5-dd4b-435a-9586-c0f05a0eb6a7</t>
+    <t>96079fe6-864f-4d33-b1cb-b771e4c7986e</t>
   </si>
   <si>
     <t>8ce3edc8-fba6-4a72-949e-2a7519d19557</t>
@@ -166,682 +169,682 @@
     <t>646ec923-34d3-4b18-bc9d-c5936d0ddb22</t>
   </si>
   <si>
+    <t>59ff77f2-dc07-4bf0-be38-f0a86f2dedb4</t>
+  </si>
+  <si>
     <t>69eee2a3-69ac-4b50-bf99-41bdfeb81940</t>
   </si>
   <si>
-    <t>96079fe6-864f-4d33-b1cb-b771e4c7986e</t>
-  </si>
-  <si>
-    <t>59ff77f2-dc07-4bf0-be38-f0a86f2dedb4</t>
+    <t>21d5a776-be4e-4017-aae3-668a7f73af37</t>
+  </si>
+  <si>
+    <t>e76fdb5e-a9a8-4485-b797-b67c1437b005</t>
+  </si>
+  <si>
+    <t>08d5398e-bc13-44b8-87ca-301471b70666</t>
+  </si>
+  <si>
+    <t>84549ead-06e3-4700-b16d-fbac46edfa8c</t>
+  </si>
+  <si>
+    <t>9e518af7-7460-468a-a7af-44b661230725</t>
+  </si>
+  <si>
+    <t>82004687-888b-49c7-96fc-9644e1b663e8</t>
   </si>
   <si>
     <t>f71d3d44-562f-4079-a01f-b7954d2e3bff</t>
   </si>
   <si>
-    <t>82004687-888b-49c7-96fc-9644e1b663e8</t>
+    <t>cfe14a38-1689-4784-a2a5-bbb49da847bf</t>
   </si>
   <si>
     <t>dd8404a3-bb79-482b-a458-07dd346e97ce</t>
   </si>
   <si>
-    <t>e76fdb5e-a9a8-4485-b797-b67c1437b005</t>
-  </si>
-  <si>
-    <t>21d5a776-be4e-4017-aae3-668a7f73af37</t>
-  </si>
-  <si>
-    <t>08d5398e-bc13-44b8-87ca-301471b70666</t>
-  </si>
-  <si>
-    <t>84549ead-06e3-4700-b16d-fbac46edfa8c</t>
-  </si>
-  <si>
-    <t>9e518af7-7460-468a-a7af-44b661230725</t>
-  </si>
-  <si>
-    <t>cfe14a38-1689-4784-a2a5-bbb49da847bf</t>
+    <t>2cfadde1-08f8-4818-a05b-d7112cbec00f</t>
   </si>
   <si>
     <t>77272765-1f0e-4386-8623-d2d3792e9d31</t>
   </si>
   <si>
+    <t>72bb1fc6-387f-4803-b509-9e52b3086ef7</t>
+  </si>
+  <si>
+    <t>a6263f96-67c3-4bc2-a8f7-2d8acb1e9aac</t>
+  </si>
+  <si>
+    <t>771c7171-5783-4135-a60c-fbc64223f29c</t>
+  </si>
+  <si>
+    <t>8a4b1a9b-c806-49a4-8310-8112f7eb6282</t>
+  </si>
+  <si>
     <t>0ed19166-6db9-458c-8368-6c8708ea671e</t>
   </si>
   <si>
+    <t>ec4e5dfd-0fef-4333-932f-cb23348dbb99</t>
+  </si>
+  <si>
     <t>c5ea6189-2fa4-4a15-a533-d2728fd7b5d7</t>
   </si>
   <si>
-    <t>8a4b1a9b-c806-49a4-8310-8112f7eb6282</t>
-  </si>
-  <si>
-    <t>771c7171-5783-4135-a60c-fbc64223f29c</t>
-  </si>
-  <si>
-    <t>ec4e5dfd-0fef-4333-932f-cb23348dbb99</t>
-  </si>
-  <si>
-    <t>72bb1fc6-387f-4803-b509-9e52b3086ef7</t>
-  </si>
-  <si>
     <t>0a568782-098d-411c-b3a6-3451ee4b0e40</t>
   </si>
   <si>
-    <t>2cfadde1-08f8-4818-a05b-d7112cbec00f</t>
-  </si>
-  <si>
-    <t>a6263f96-67c3-4bc2-a8f7-2d8acb1e9aac</t>
+    <t>cdd82576-4706-42b2-9901-59288a39fc99</t>
+  </si>
+  <si>
+    <t>07c6480a-52ec-4f70-b862-78ac439700f8</t>
+  </si>
+  <si>
+    <t>12ad66a6-955b-4595-a5a6-8da14068d918</t>
+  </si>
+  <si>
+    <t>9d60be92-fb7b-4b94-9f22-70648342427d</t>
+  </si>
+  <si>
+    <t>0afa79ef-9e2b-40e0-b74f-2a268de35be6</t>
   </si>
   <si>
     <t>f8ba47ef-7c36-4f25-8fbf-d74b4fb57795</t>
   </si>
   <si>
+    <t>dad272bc-3d45-41a7-8cce-9acb75e5944d</t>
+  </si>
+  <si>
+    <t>71a06067-4003-4d41-9ccf-f1a49cd2d655</t>
+  </si>
+  <si>
     <t>187f9026-e464-40b1-be39-c33c938a6506</t>
   </si>
   <si>
+    <t>67411823-7bc5-4892-bef5-7765708e4a31</t>
+  </si>
+  <si>
     <t>a97a7a66-28ec-49d9-be25-28b84fababf5</t>
   </si>
   <si>
-    <t>dad272bc-3d45-41a7-8cce-9acb75e5944d</t>
-  </si>
-  <si>
-    <t>0afa79ef-9e2b-40e0-b74f-2a268de35be6</t>
-  </si>
-  <si>
-    <t>71a06067-4003-4d41-9ccf-f1a49cd2d655</t>
-  </si>
-  <si>
-    <t>cdd82576-4706-42b2-9901-59288a39fc99</t>
-  </si>
-  <si>
-    <t>9d60be92-fb7b-4b94-9f22-70648342427d</t>
-  </si>
-  <si>
-    <t>12ad66a6-955b-4595-a5a6-8da14068d918</t>
-  </si>
-  <si>
-    <t>67411823-7bc5-4892-bef5-7765708e4a31</t>
-  </si>
-  <si>
-    <t>07c6480a-52ec-4f70-b862-78ac439700f8</t>
+    <t>7a1629f7-2625-4955-8bed-075ae9724814</t>
+  </si>
+  <si>
+    <t>6ffd6833-10e9-4093-9dd1-67010134642f</t>
+  </si>
+  <si>
+    <t>170571cf-c646-4846-8085-2855cb48c94c</t>
+  </si>
+  <si>
+    <t>6bfa313f-de58-4d5f-95cb-daf9a0b64127</t>
+  </si>
+  <si>
+    <t>2c62fda4-189b-4254-9160-124e95ea1789</t>
+  </si>
+  <si>
+    <t>fd3b7738-3726-4374-a271-3c011bc002ef</t>
+  </si>
+  <si>
+    <t>edf370af-f483-4d65-8646-69fa8af1d520</t>
+  </si>
+  <si>
+    <t>19d773d0-795e-410c-a471-ef89c5e1c852</t>
+  </si>
+  <si>
+    <t>060c3beb-824c-4a83-a0a5-33745086b001</t>
+  </si>
+  <si>
+    <t>63aa755c-fa6c-4ece-a5a3-1cf08d845487</t>
+  </si>
+  <si>
+    <t>36f1d211-a4ac-4fcd-b60e-b5d879c14348</t>
+  </si>
+  <si>
+    <t>9981928d-9dc1-4d39-847c-9ea2f54988ac</t>
+  </si>
+  <si>
+    <t>0d262439-0a58-4a79-8451-56456926c264</t>
+  </si>
+  <si>
+    <t>f96d43c5-322d-4d46-ab7f-a418d8384070</t>
+  </si>
+  <si>
+    <t>e86ac7bd-038f-43cf-936a-a8cc687db2a8</t>
+  </si>
+  <si>
+    <t>cf003aca-8e47-4bf8-8ad6-8f3e6edd653e</t>
+  </si>
+  <si>
+    <t>9d77f9f6-84ce-48a6-b342-20a32771f8e3</t>
+  </si>
+  <si>
+    <t>bef3933b-1491-4054-b524-ee848fd7d9bb</t>
+  </si>
+  <si>
+    <t>e76e4bbb-f42b-4d97-9406-4447331f1611</t>
+  </si>
+  <si>
+    <t>211d9d4a-5ca8-452a-9171-7bbc4472f04b</t>
   </si>
   <si>
     <t>7e30dcfb-b5f0-47f6-9ab3-7c29bfb8e860</t>
   </si>
   <si>
+    <t>32007fb7-6c6f-45a8-9367-6cce6149a54c</t>
+  </si>
+  <si>
+    <t>47413072-31e0-4fb8-af1d-aa8f830becfc</t>
+  </si>
+  <si>
+    <t>f38aafbf-cd75-4bfd-b512-dd98dfaa2cf6</t>
+  </si>
+  <si>
+    <t>260b91de-0558-47b0-877f-cd632f772fd5</t>
+  </si>
+  <si>
+    <t>e258e763-43c4-4bef-b223-0ac855b23cea</t>
+  </si>
+  <si>
+    <t>3efffa7a-7d1c-417f-bbf4-053e80a84ebd</t>
+  </si>
+  <si>
+    <t>f5d53e4d-c3ba-44e6-a1dd-b087680f2e90</t>
+  </si>
+  <si>
+    <t>5741d897-8f4b-4aba-976e-be1ec160184a</t>
+  </si>
+  <si>
+    <t>3eb23ab5-e311-47a0-ae00-baef94d56052</t>
+  </si>
+  <si>
+    <t>45de816d-89d9-4cb2-9b15-94def4b4f233</t>
+  </si>
+  <si>
+    <t>e5e782b4-8cfa-4628-b994-7175b0e34de0</t>
+  </si>
+  <si>
+    <t>58ce156d-8fe6-4f75-9e3a-73b28069df42</t>
+  </si>
+  <si>
+    <t>3c653da7-357e-45ed-a14e-e1f60423a8e3</t>
+  </si>
+  <si>
     <t>dcb9eca3-de8d-46eb-8a23-252330b91054</t>
   </si>
   <si>
-    <t>e258e763-43c4-4bef-b223-0ac855b23cea</t>
-  </si>
-  <si>
-    <t>58ce156d-8fe6-4f75-9e3a-73b28069df42</t>
-  </si>
-  <si>
-    <t>9d77f9f6-84ce-48a6-b342-20a32771f8e3</t>
-  </si>
-  <si>
-    <t>7a1629f7-2625-4955-8bed-075ae9724814</t>
-  </si>
-  <si>
-    <t>e5e782b4-8cfa-4628-b994-7175b0e34de0</t>
-  </si>
-  <si>
-    <t>63aa755c-fa6c-4ece-a5a3-1cf08d845487</t>
-  </si>
-  <si>
-    <t>edf370af-f483-4d65-8646-69fa8af1d520</t>
-  </si>
-  <si>
-    <t>fd3b7738-3726-4374-a271-3c011bc002ef</t>
-  </si>
-  <si>
-    <t>3c653da7-357e-45ed-a14e-e1f60423a8e3</t>
-  </si>
-  <si>
-    <t>9981928d-9dc1-4d39-847c-9ea2f54988ac</t>
-  </si>
-  <si>
-    <t>e86ac7bd-038f-43cf-936a-a8cc687db2a8</t>
-  </si>
-  <si>
-    <t>19d773d0-795e-410c-a471-ef89c5e1c852</t>
-  </si>
-  <si>
-    <t>32007fb7-6c6f-45a8-9367-6cce6149a54c</t>
-  </si>
-  <si>
-    <t>cf003aca-8e47-4bf8-8ad6-8f3e6edd653e</t>
-  </si>
-  <si>
-    <t>2c62fda4-189b-4254-9160-124e95ea1789</t>
-  </si>
-  <si>
-    <t>5741d897-8f4b-4aba-976e-be1ec160184a</t>
-  </si>
-  <si>
-    <t>f96d43c5-322d-4d46-ab7f-a418d8384070</t>
-  </si>
-  <si>
-    <t>3eb23ab5-e311-47a0-ae00-baef94d56052</t>
-  </si>
-  <si>
-    <t>3efffa7a-7d1c-417f-bbf4-053e80a84ebd</t>
-  </si>
-  <si>
-    <t>45de816d-89d9-4cb2-9b15-94def4b4f233</t>
-  </si>
-  <si>
-    <t>f5d53e4d-c3ba-44e6-a1dd-b087680f2e90</t>
-  </si>
-  <si>
-    <t>6ffd6833-10e9-4093-9dd1-67010134642f</t>
-  </si>
-  <si>
-    <t>170571cf-c646-4846-8085-2855cb48c94c</t>
-  </si>
-  <si>
-    <t>36f1d211-a4ac-4fcd-b60e-b5d879c14348</t>
-  </si>
-  <si>
-    <t>47413072-31e0-4fb8-af1d-aa8f830becfc</t>
-  </si>
-  <si>
-    <t>260b91de-0558-47b0-877f-cd632f772fd5</t>
-  </si>
-  <si>
-    <t>6bfa313f-de58-4d5f-95cb-daf9a0b64127</t>
-  </si>
-  <si>
-    <t>f38aafbf-cd75-4bfd-b512-dd98dfaa2cf6</t>
-  </si>
-  <si>
-    <t>211d9d4a-5ca8-452a-9171-7bbc4472f04b</t>
-  </si>
-  <si>
-    <t>0d262439-0a58-4a79-8451-56456926c264</t>
-  </si>
-  <si>
-    <t>e76e4bbb-f42b-4d97-9406-4447331f1611</t>
-  </si>
-  <si>
-    <t>bef3933b-1491-4054-b524-ee848fd7d9bb</t>
-  </si>
-  <si>
-    <t>060c3beb-824c-4a83-a0a5-33745086b001</t>
+    <t>02a9977b-c1d5-49e0-99dc-19ea351c10f5</t>
+  </si>
+  <si>
+    <t>0fa62880-9251-474f-afd9-bfa2f5b3ca07</t>
+  </si>
+  <si>
+    <t>5ff55565-ea21-4a2b-89c3-c65abc6d8ce5</t>
+  </si>
+  <si>
+    <t>5b241306-964f-4336-9595-1edca69006f1</t>
+  </si>
+  <si>
+    <t>d2c48084-a486-4459-a779-f9ae23ee0ca5</t>
+  </si>
+  <si>
+    <t>04c7baba-0577-4228-a6d4-0021bfa53eb1</t>
+  </si>
+  <si>
+    <t>7f7ddce9-efb2-445d-b475-8942a226b6cd</t>
+  </si>
+  <si>
+    <t>df55cc76-7eca-44e7-be85-736479f1445b</t>
+  </si>
+  <si>
+    <t>c979689c-b171-489e-81fe-34355d76b900</t>
   </si>
   <si>
     <t>448168da-cd91-433b-8bb0-a8e2c834b09f</t>
   </si>
   <si>
+    <t>020e3175-851a-4805-87aa-512ee3096e14</t>
+  </si>
+  <si>
+    <t>3b97c7f6-00a6-4eb0-a1ae-8bb1da0875ec</t>
+  </si>
+  <si>
+    <t>9300a0a6-6813-444a-984b-28069140a283</t>
+  </si>
+  <si>
+    <t>0a1de85a-63f3-4db8-b3d1-5ecec67a2b3e</t>
+  </si>
+  <si>
+    <t>3db827e1-c64f-4a01-b9ac-bec676d32380</t>
+  </si>
+  <si>
+    <t>0fc021c9-0dfe-4c0a-8157-1803dbde391f</t>
+  </si>
+  <si>
+    <t>387152e1-70d3-4020-9bae-e6aa054272ef</t>
+  </si>
+  <si>
+    <t>168278eb-e8bc-4a46-b26b-94efbb0299b5</t>
+  </si>
+  <si>
+    <t>cb6311dd-5ea5-43c7-8297-3b8e4a88fe18</t>
+  </si>
+  <si>
+    <t>6d4e7221-0b65-489a-a5c1-7ee65f49047b</t>
+  </si>
+  <si>
+    <t>02fce76c-1260-42e1-bf7e-80a0474dbaa9</t>
+  </si>
+  <si>
+    <t>a4e943a3-b793-42df-a009-f62c139c4d51</t>
+  </si>
+  <si>
+    <t>ed5fb87b-a1f6-427a-9d20-1294df424c10</t>
+  </si>
+  <si>
+    <t>6940b588-ec7a-4859-90f2-f7bd83256af8</t>
+  </si>
+  <si>
+    <t>db47ba44-7171-4262-a244-a3d23b274551</t>
+  </si>
+  <si>
+    <t>abd190d9-59a7-4753-904e-502c9f2dbbf2</t>
+  </si>
+  <si>
+    <t>11d195b4-4f96-45e4-8a63-b1eb9a460364</t>
+  </si>
+  <si>
+    <t>33a0c64a-ba3b-47ff-ac0e-f231fa47f907</t>
+  </si>
+  <si>
+    <t>699f8832-78c8-4682-a67d-f4ba248cd694</t>
+  </si>
+  <si>
+    <t>8916bb5a-a71e-470e-8e42-b6cce176ce75</t>
+  </si>
+  <si>
+    <t>23cc5646-d288-455a-8309-a0710a29f7a0</t>
+  </si>
+  <si>
+    <t>76490d78-8ebb-44f8-b95a-5d66de30f934</t>
+  </si>
+  <si>
+    <t>89bdf2a2-6f66-4f57-8eb3-8e944263bd08</t>
+  </si>
+  <si>
+    <t>172e9e7d-06cd-4167-9a87-7066e25f9b34</t>
+  </si>
+  <si>
+    <t>6ab67570-2467-46f5-8c69-aa0607d80598</t>
+  </si>
+  <si>
+    <t>1a39a48b-5866-4aad-9001-472107080a65</t>
+  </si>
+  <si>
+    <t>ca4dba71-ab3f-4d8c-b480-618ca9c948ff</t>
+  </si>
+  <si>
+    <t>35c9e8eb-27aa-46d5-9a2f-6bfa8be1d8ef</t>
+  </si>
+  <si>
+    <t>1a96945b-937f-4e34-9774-f5b235c631a4</t>
+  </si>
+  <si>
+    <t>1aba4333-bad7-4087-b179-9e7b2b8148c8</t>
+  </si>
+  <si>
     <t>386f1219-e161-4582-8664-c814c7c531c3</t>
   </si>
   <si>
+    <t>878604cb-faab-45ff-aa50-1f012281d7e0</t>
+  </si>
+  <si>
+    <t>c208f18c-2e5d-4970-b036-ae16f81620c9</t>
+  </si>
+  <si>
+    <t>c26966a2-cff3-4c98-a736-6bf469e50268</t>
+  </si>
+  <si>
+    <t>f99b1b79-7158-4ae7-80eb-609f5101109b</t>
+  </si>
+  <si>
+    <t>d57d8259-5eba-4bc4-a880-a2e8d97cea8f</t>
+  </si>
+  <si>
+    <t>76af1d5d-bbbc-46ad-9b15-ebd135bb9681</t>
+  </si>
+  <si>
+    <t>38ef7f80-28a1-42b5-8e8d-04ae5e7ddf5a</t>
+  </si>
+  <si>
+    <t>75980f41-4033-4dd5-aca3-e3db0d9c4055</t>
+  </si>
+  <si>
+    <t>b5ffb756-3dcd-491c-b565-ffea5dd1253d</t>
+  </si>
+  <si>
+    <t>a9443188-23ae-41d2-93c6-8707c37539b1</t>
+  </si>
+  <si>
+    <t>e9b4201f-3e62-4ce8-bfd0-922bd51404b3</t>
+  </si>
+  <si>
+    <t>8660f80d-970f-486b-b45e-9e127c9854b5</t>
+  </si>
+  <si>
+    <t>d9f5e542-3245-4c55-b271-3200c2651c25</t>
+  </si>
+  <si>
     <t>e38249b6-79bc-40e5-bc52-0ca5e36bf6bc</t>
   </si>
   <si>
-    <t>3db827e1-c64f-4a01-b9ac-bec676d32380</t>
-  </si>
-  <si>
-    <t>33a0c64a-ba3b-47ff-ac0e-f231fa47f907</t>
-  </si>
-  <si>
-    <t>23cc5646-d288-455a-8309-a0710a29f7a0</t>
-  </si>
-  <si>
-    <t>02fce76c-1260-42e1-bf7e-80a0474dbaa9</t>
+    <t>59aae588-31e1-447f-a132-516d7e4dd1aa</t>
+  </si>
+  <si>
+    <t>369802d5-3c4d-405e-a212-0cb17cf2b319</t>
+  </si>
+  <si>
+    <t>63c7bcff-f3cc-41ed-861b-b2311ac7124e</t>
+  </si>
+  <si>
+    <t>357c9ce5-f247-45b9-ad48-6bc4cfb561e0</t>
+  </si>
+  <si>
+    <t>14fc66a0-1af7-4bbb-a6e3-a685910d6ac2</t>
   </si>
   <si>
     <t>ad5fdf9a-6e56-4f89-916b-a7c053779063</t>
   </si>
   <si>
-    <t>63c7bcff-f3cc-41ed-861b-b2311ac7124e</t>
-  </si>
-  <si>
-    <t>abd190d9-59a7-4753-904e-502c9f2dbbf2</t>
-  </si>
-  <si>
-    <t>ed5fb87b-a1f6-427a-9d20-1294df424c10</t>
-  </si>
-  <si>
-    <t>8660f80d-970f-486b-b45e-9e127c9854b5</t>
-  </si>
-  <si>
-    <t>020e3175-851a-4805-87aa-512ee3096e14</t>
-  </si>
-  <si>
-    <t>5b241306-964f-4336-9595-1edca69006f1</t>
-  </si>
-  <si>
-    <t>172e9e7d-06cd-4167-9a87-7066e25f9b34</t>
-  </si>
-  <si>
-    <t>699f8832-78c8-4682-a67d-f4ba248cd694</t>
-  </si>
-  <si>
-    <t>76490d78-8ebb-44f8-b95a-5d66de30f934</t>
-  </si>
-  <si>
-    <t>35c9e8eb-27aa-46d5-9a2f-6bfa8be1d8ef</t>
-  </si>
-  <si>
-    <t>14fc66a0-1af7-4bbb-a6e3-a685910d6ac2</t>
-  </si>
-  <si>
-    <t>c26966a2-cff3-4c98-a736-6bf469e50268</t>
-  </si>
-  <si>
-    <t>a9443188-23ae-41d2-93c6-8707c37539b1</t>
-  </si>
-  <si>
-    <t>11d195b4-4f96-45e4-8a63-b1eb9a460364</t>
-  </si>
-  <si>
-    <t>e9b4201f-3e62-4ce8-bfd0-922bd51404b3</t>
-  </si>
-  <si>
-    <t>ca4dba71-ab3f-4d8c-b480-618ca9c948ff</t>
-  </si>
-  <si>
-    <t>6940b588-ec7a-4859-90f2-f7bd83256af8</t>
-  </si>
-  <si>
-    <t>a4e943a3-b793-42df-a009-f62c139c4d51</t>
-  </si>
-  <si>
-    <t>6d4e7221-0b65-489a-a5c1-7ee65f49047b</t>
-  </si>
-  <si>
     <t>c873af48-b59f-48af-a0a9-70171c1144f6</t>
   </si>
   <si>
-    <t>0a1de85a-63f3-4db8-b3d1-5ecec67a2b3e</t>
-  </si>
-  <si>
-    <t>d2c48084-a486-4459-a779-f9ae23ee0ca5</t>
-  </si>
-  <si>
-    <t>7f7ddce9-efb2-445d-b475-8942a226b6cd</t>
-  </si>
-  <si>
-    <t>5ff55565-ea21-4a2b-89c3-c65abc6d8ce5</t>
-  </si>
-  <si>
-    <t>c208f18c-2e5d-4970-b036-ae16f81620c9</t>
-  </si>
-  <si>
-    <t>59aae588-31e1-447f-a132-516d7e4dd1aa</t>
-  </si>
-  <si>
-    <t>cb6311dd-5ea5-43c7-8297-3b8e4a88fe18</t>
-  </si>
-  <si>
-    <t>0fc021c9-0dfe-4c0a-8157-1803dbde391f</t>
-  </si>
-  <si>
-    <t>b5ffb756-3dcd-491c-b565-ffea5dd1253d</t>
-  </si>
-  <si>
-    <t>02a9977b-c1d5-49e0-99dc-19ea351c10f5</t>
-  </si>
-  <si>
-    <t>d9f5e542-3245-4c55-b271-3200c2651c25</t>
-  </si>
-  <si>
-    <t>38ef7f80-28a1-42b5-8e8d-04ae5e7ddf5a</t>
-  </si>
-  <si>
-    <t>1a96945b-937f-4e34-9774-f5b235c631a4</t>
-  </si>
-  <si>
-    <t>357c9ce5-f247-45b9-ad48-6bc4cfb561e0</t>
-  </si>
-  <si>
-    <t>db47ba44-7171-4262-a244-a3d23b274551</t>
-  </si>
-  <si>
-    <t>878604cb-faab-45ff-aa50-1f012281d7e0</t>
-  </si>
-  <si>
-    <t>1a39a48b-5866-4aad-9001-472107080a65</t>
-  </si>
-  <si>
-    <t>168278eb-e8bc-4a46-b26b-94efbb0299b5</t>
-  </si>
-  <si>
-    <t>f99b1b79-7158-4ae7-80eb-609f5101109b</t>
-  </si>
-  <si>
-    <t>387152e1-70d3-4020-9bae-e6aa054272ef</t>
-  </si>
-  <si>
-    <t>04c7baba-0577-4228-a6d4-0021bfa53eb1</t>
-  </si>
-  <si>
-    <t>d57d8259-5eba-4bc4-a880-a2e8d97cea8f</t>
-  </si>
-  <si>
-    <t>76af1d5d-bbbc-46ad-9b15-ebd135bb9681</t>
-  </si>
-  <si>
-    <t>8916bb5a-a71e-470e-8e42-b6cce176ce75</t>
-  </si>
-  <si>
-    <t>3b97c7f6-00a6-4eb0-a1ae-8bb1da0875ec</t>
-  </si>
-  <si>
-    <t>369802d5-3c4d-405e-a212-0cb17cf2b319</t>
-  </si>
-  <si>
-    <t>6ab67570-2467-46f5-8c69-aa0607d80598</t>
-  </si>
-  <si>
-    <t>c979689c-b171-489e-81fe-34355d76b900</t>
-  </si>
-  <si>
-    <t>df55cc76-7eca-44e7-be85-736479f1445b</t>
-  </si>
-  <si>
-    <t>89bdf2a2-6f66-4f57-8eb3-8e944263bd08</t>
-  </si>
-  <si>
-    <t>9300a0a6-6813-444a-984b-28069140a283</t>
-  </si>
-  <si>
-    <t>75980f41-4033-4dd5-aca3-e3db0d9c4055</t>
-  </si>
-  <si>
-    <t>0fa62880-9251-474f-afd9-bfa2f5b3ca07</t>
-  </si>
-  <si>
-    <t>1aba4333-bad7-4087-b179-9e7b2b8148c8</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall', 'handle-busc-semantica-hall'}</t>
+    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'onboarding-skip', 'handleConfirmDeleteDesafioSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
   </si>
   <si>
     <t>{'home-hall'}</t>
   </si>
   <si>
-    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp'}</t>
+    <t>{'click em trilhas-lxp', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip'}</t>
   </si>
   <si>
     <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
   </si>
   <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'onboarding-skip', 'ver canais-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'click em trilhas-lxp', 'home-hall'}</t>
+    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'onboarding-skip', 'home-hall'}</t>
   </si>
   <si>
     <t>{'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
   </si>
   <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-skip', 'onboarding-to Profile', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'ver canais-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'handle-busc-semantica-hall'}</t>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Profile'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'handle-busc-semantica-hall', 'home-hall'}</t>
   </si>
   <si>
     <t>{'onboardingAdmin-skip', 'home-hall'}</t>
   </si>
   <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'onboardingAdmin-to Step 2', 'onboardingAdmin-to Step 3'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall', 'modal-SRG'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'home-hall', 'home-hall-manager', 'onboardingAdmin-to Step 2'}</t>
+    <t>{'onboardingAdmin-to Step 3', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'home-hall', 'modal-SRG', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'onboardingAdmin-to Step 2', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handleOpenModalSRG-hall', 'home-hall-manager', 'modal-SRG', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
   </si>
   <si>
     <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
   </si>
   <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'seta carrossel canais-lxp', 'modal-SRG', 'home-hall', 'ver canais-lxp', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'ver canais-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleViewDesafioSRG-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handle-busc-semantica-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
   </si>
   <si>
     <t>{'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
   </si>
   <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'modal-SRG', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'handleOpenModalSRG-hall', 'modal-SRG'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-to Step 1', 'onboarding-to Profile', 'onboarding-skip', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'onboarding-skip'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Challenge', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Step 3', 'onboarding-to Profile', 'onboarding-to Step 2'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'onboarding-skip', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'criar conteúdo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall'}</t>
-  </si>
-  <si>
-    <t>{'handleSkipPrezziSRG-hall', 'onboarding-to Step 2', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'handleOpenModalSRG-hall', 'modal-SRG'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'ver canais-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'criar conteúdo-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall', 'onboarding-to Profile', 'onboarding-skip'}</t>
+    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'modal-SRG', 'handleOpenModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleOpenModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'onboarding-to Challenge', 'acessar conteúdos em vídeo-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'handle-busc-semantica-hall', 'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 1', 'onboarding-to Step 3', 'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'onboarding-to Step 2', 'onboarding-to Profile'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'onboarding-skip', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-skip', 'home-hall', 'acessar meus desafios-hall', 'onboarding-to Profile'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'criar conteúdo-lxp'}</t>
   </si>
   <si>
     <t>{'acessar meus desafios-hall', 'home-hall'}</t>
   </si>
   <si>
-    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall-manager', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'seta carrossel canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'onboarding-to Profile', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'criar conteúdo-lxp', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'click em trilhas-lxp', 'ver canais-lxp', 'home-hall', 'botão carrossel meus desafios-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
+    <t>{'acessar meus desafios-hall', 'onboarding-to Step 2', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'onboarding-to Step 3'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'handle-busc-semantica-hall', 'clickNotification-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'onboardingAdmin-to Step 2', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'seta carrossel canais-lxp'}</t>
   </si>
   <si>
     <t>{'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
   </si>
   <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'seta carrossel canais-lxp', 'click em trilhas-lxp', 'ver canais-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handle-busc-semantica-hall', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'onboardingAdmin-to Step 4', 'modal-SRG', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboarding-to Challenge', 'onboarding-skip', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Community', 'home-hall', 'onboarding-skip'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Profile', 'onboarding-skip'}</t>
-  </si>
-  <si>
-    <t>{'clickNotification-hall', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'home-hall', 'onboardingAdmin-skip', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'ver canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-to Profile', 'onboarding-skip', 'ver canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'home-hall', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'onboardingAdmin-skip', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'click em trilhas-lxp', 'seta carrossel canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'modal-SRG', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'onboardingAdmin-to Step 4', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleDeleteDesafioSRG-hall', 'modal-SRG', 'handleEditDetaisSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'home-hall', 'home-hall-manager', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'click em trilhas-lxp', 'ver canais-lxp', 'onboardingAdmin-skip', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'home-hall', 'home-hall-manager', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'onboarding-to Step 2', 'acessar meus desafios-hall', 'onboarding-to Step 3', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall', 'botão carrossel meus desafios-hall', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-skip', 'home-hall', 'handle-busc-semantica-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-to Profile', 'home-hall'}</t>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'botão carrossel meus desafios-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-skip', 'onboarding-to Community', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-to Step 3', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 2', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 2', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'ver canais-lxp', 'handle-busc-semantica-hall', 'onboarding-to Step 3', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'home-hall-manager', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'home-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-skip', 'onboarding-to Profile'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-skip', 'onboarding-to Challenge', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboarding-to Profile', 'handleViewDesafioSRG-hall', 'onboarding-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleEditDetaisSRG-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleDeleteDesafioSRG-hall', 'handleViewDesafioSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'botão carrossel meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'handle-busc-semantica-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'onboarding-to Step 3', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 2', 'onboardingAdmin-skip', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall', 'seta carrossel canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar meus desafios-hall', 'modal-SRG', 'home-hall-manager', 'handleOpenModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
   </si>
   <si>
     <t>{'onboardingAdmin-skip', 'home-hall', 'home-hall-manager'}</t>
   </si>
   <si>
-    <t>{'clickNotification-hall', 'acessar meus desafios-hall', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'click em trilhas-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'click em trilhas-lxp', 'ver canais-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenPrezziModalSRG-hall', 'modal-SRG', 'click em trilhas-lxp', 'home-hall-manager', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall'}</t>
+    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'home-hall-manager', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall', 'clickNotification-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'home-hall-manager'}</t>
   </si>
 </sst>
 </file>
@@ -1474,7 +1477,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1485,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1496,7 +1499,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1507,7 +1510,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1518,7 +1521,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1529,7 +1532,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1573,7 +1576,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1584,7 +1587,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1595,7 +1598,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1617,7 +1620,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1628,7 +1631,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1639,7 +1642,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1661,7 +1664,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1672,7 +1675,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1683,7 +1686,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1694,7 +1697,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1705,7 +1708,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1727,7 +1730,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1738,7 +1741,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1749,7 +1752,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1760,7 +1763,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1771,7 +1774,7 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1782,7 +1785,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1793,7 +1796,7 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1804,7 +1807,7 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1826,7 +1829,7 @@
         <v>57</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1837,7 +1840,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1848,7 +1851,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1859,7 +1862,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1870,7 +1873,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1881,7 +1884,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1892,7 +1895,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1903,7 +1906,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1914,7 +1917,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1925,7 +1928,7 @@
         <v>66</v>
       </c>
       <c r="C66" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1936,7 +1939,7 @@
         <v>67</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1947,7 +1950,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1958,7 +1961,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1969,7 +1972,7 @@
         <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1980,7 +1983,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2002,7 +2005,7 @@
         <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2013,7 +2016,7 @@
         <v>74</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2024,7 +2027,7 @@
         <v>75</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -2035,7 +2038,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2046,7 +2049,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2057,7 +2060,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2068,7 +2071,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2079,7 +2082,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2090,7 +2093,7 @@
         <v>81</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2101,7 +2104,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2112,7 +2115,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2123,7 +2126,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2167,7 +2170,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2178,7 +2181,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2189,7 +2192,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2200,7 +2203,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2211,7 +2214,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2222,7 +2225,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2233,7 +2236,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2244,7 +2247,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2255,7 +2258,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2266,7 +2269,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2321,7 +2324,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2332,7 +2335,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2343,7 +2346,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2354,7 +2357,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2365,7 +2368,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2376,7 +2379,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2398,7 +2401,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>245</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2409,7 +2412,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2420,7 +2423,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2431,7 +2434,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2442,7 +2445,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2453,7 +2456,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2464,7 +2467,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2475,7 +2478,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2486,7 +2489,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>229</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2497,7 +2500,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2519,7 +2522,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2530,7 +2533,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2541,7 +2544,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2552,7 +2555,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2563,7 +2566,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2574,7 +2577,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2585,7 +2588,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2596,7 +2599,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2607,7 +2610,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2618,7 +2621,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>197</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2629,7 +2632,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2640,7 +2643,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2651,7 +2654,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2662,7 +2665,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2673,7 +2676,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2684,7 +2687,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2695,7 +2698,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2706,7 +2709,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2717,7 +2720,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2728,7 +2731,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2739,7 +2742,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2750,7 +2753,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2761,7 +2764,7 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2772,7 +2775,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2783,7 +2786,7 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2794,7 +2797,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2805,7 +2808,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2816,7 +2819,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2827,7 +2830,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2838,7 +2841,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2849,7 +2852,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>191</v>
+        <v>236</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2871,7 +2874,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2882,7 +2885,7 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2893,7 +2896,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2904,7 +2907,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>185</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2915,7 +2918,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2926,7 +2929,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2937,7 +2940,7 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2948,7 +2951,7 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2959,7 +2962,7 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2970,7 +2973,7 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>197</v>
+        <v>270</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2981,7 +2984,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>180</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2992,7 +2995,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3003,7 +3006,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>270</v>
+        <v>197</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3014,7 +3017,7 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3025,7 +3028,7 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>272</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3036,7 +3039,7 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3058,7 +3061,7 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>185</v>
+        <v>272</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3069,7 +3072,7 @@
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>273</v>
+        <v>197</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3080,7 +3083,7 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3091,7 +3094,7 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3102,7 +3105,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>229</v>
+        <v>273</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3113,7 +3116,7 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3124,7 +3127,7 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3135,7 +3138,7 @@
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3146,7 +3149,7 @@
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3157,7 +3160,7 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3168,7 +3171,7 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/Possibiladades.xlsx
+++ b/Possibiladades.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="276">
   <si>
     <t>organization_id</t>
   </si>
@@ -28,12 +28,12 @@
     <t>4adb5f9b-f50a-4957-a7e3-94c3452d877c</t>
   </si>
   <si>
+    <t>c81fa8b0-52c0-4a31-abb7-6776a76cc9c8</t>
+  </si>
+  <si>
     <t>d3400673-a5b2-4914-bf57-ce98dc710603</t>
   </si>
   <si>
-    <t>c81fa8b0-52c0-4a31-abb7-6776a76cc9c8</t>
-  </si>
-  <si>
     <t>9e3e7a95-c6f5-4b6f-b189-8f33e45ee425</t>
   </si>
   <si>
@@ -46,12 +46,12 @@
     <t>abba8235-15bd-4285-90b4-104e9308013e</t>
   </si>
   <si>
+    <t>6019ee26-09c3-422e-8c25-0abe878d1a73</t>
+  </si>
+  <si>
     <t>c8c88852-b101-4b47-aaca-4cee45368c9f</t>
   </si>
   <si>
-    <t>6019ee26-09c3-422e-8c25-0abe878d1a73</t>
-  </si>
-  <si>
     <t>071250db-e54d-4d3a-a179-d1546ba79c63</t>
   </si>
   <si>
@@ -79,25 +79,28 @@
     <t>cbdf1fac-5e6a-4d10-9aae-570fda653d2a</t>
   </si>
   <si>
+    <t>7da5a3d1-5507-4619-b494-613641b6fa82</t>
+  </si>
+  <si>
     <t>d3d18ee4-38e5-4c53-8eea-4b17a53942f5</t>
   </si>
   <si>
+    <t>0c2d4ff5-fd82-46f4-a315-8d82d1d53365</t>
+  </si>
+  <si>
     <t>0cf8cd81-3cd6-419f-9cda-19d95d3bb2c0</t>
   </si>
   <si>
-    <t>7da5a3d1-5507-4619-b494-613641b6fa82</t>
-  </si>
-  <si>
-    <t>0c2d4ff5-fd82-46f4-a315-8d82d1d53365</t>
-  </si>
-  <si>
     <t>36804598-46f8-41f2-879a-41f0c3ec7bb4</t>
   </si>
   <si>
+    <t>f5b8e2b2-f878-49f3-9861-5e167dd48555</t>
+  </si>
+  <si>
     <t>72b3ebf2-3150-49e7-96ff-b0a1dc4d1077</t>
   </si>
   <si>
-    <t>f5b8e2b2-f878-49f3-9861-5e167dd48555</t>
+    <t>2ff14b77-598a-48f7-aa84-227c24a7fbc8</t>
   </si>
   <si>
     <t>8c75d354-0e26-4cd4-9a63-2e062e743221</t>
@@ -106,745 +109,739 @@
     <t>addcf412-b947-45a4-aa75-bb9b952d5485</t>
   </si>
   <si>
-    <t>2ff14b77-598a-48f7-aa84-227c24a7fbc8</t>
-  </si>
-  <si>
     <t>df1824f3-5ed3-4933-b34c-9f23f62aa83a</t>
   </si>
   <si>
+    <t>45425d18-bda1-49cb-8296-8b853e44e778</t>
+  </si>
+  <si>
     <t>4996aa4f-9bcf-48f7-8d69-c95cc9d3a2e7</t>
   </si>
   <si>
-    <t>45425d18-bda1-49cb-8296-8b853e44e778</t>
-  </si>
-  <si>
     <t>e0a5c155-dc50-410e-b252-633f7250614c</t>
   </si>
   <si>
+    <t>12591d5e-e466-4360-a2e6-25d40c1eb5c0</t>
+  </si>
+  <si>
     <t>df2765f9-86ff-4493-9703-2ed346e3f29e</t>
   </si>
   <si>
+    <t>1970d173-b95f-424e-975e-f7fbb872af0c</t>
+  </si>
+  <si>
+    <t>189dee0d-2180-4910-9cc5-987ac4248973</t>
+  </si>
+  <si>
+    <t>9608a4ae-89f9-4766-86d8-a1e5257af0ac</t>
+  </si>
+  <si>
     <t>9ff3797a-fbf9-4aac-9eee-04f36c55d523</t>
   </si>
   <si>
-    <t>12591d5e-e466-4360-a2e6-25d40c1eb5c0</t>
-  </si>
-  <si>
-    <t>9608a4ae-89f9-4766-86d8-a1e5257af0ac</t>
-  </si>
-  <si>
-    <t>189dee0d-2180-4910-9cc5-987ac4248973</t>
-  </si>
-  <si>
-    <t>1970d173-b95f-424e-975e-f7fbb872af0c</t>
-  </si>
-  <si>
     <t>f3026908-1046-41d5-b926-3f1a951b54a0</t>
   </si>
   <si>
     <t>8ef6da88-4a09-443e-a776-84dcac6228f7</t>
   </si>
   <si>
+    <t>2917097f-ab4f-473b-8ead-357232bc75bb</t>
+  </si>
+  <si>
+    <t>1dc4a8f0-9d63-4e18-8c71-21e874a56841</t>
+  </si>
+  <si>
+    <t>ea4143d5-dd4b-435a-9586-c0f05a0eb6a7</t>
+  </si>
+  <si>
+    <t>ccf7d3c0-61b0-4eb8-a7a7-730a637a0755</t>
+  </si>
+  <si>
     <t>489ba007-5e4b-41cb-b765-000465201bfd</t>
   </si>
   <si>
-    <t>1dc4a8f0-9d63-4e18-8c71-21e874a56841</t>
-  </si>
-  <si>
-    <t>2917097f-ab4f-473b-8ead-357232bc75bb</t>
-  </si>
-  <si>
-    <t>ea4143d5-dd4b-435a-9586-c0f05a0eb6a7</t>
-  </si>
-  <si>
-    <t>ccf7d3c0-61b0-4eb8-a7a7-730a637a0755</t>
+    <t>59ff77f2-dc07-4bf0-be38-f0a86f2dedb4</t>
+  </si>
+  <si>
+    <t>8ce3edc8-fba6-4a72-949e-2a7519d19557</t>
+  </si>
+  <si>
+    <t>646ec923-34d3-4b18-bc9d-c5936d0ddb22</t>
   </si>
   <si>
     <t>96079fe6-864f-4d33-b1cb-b771e4c7986e</t>
   </si>
   <si>
-    <t>8ce3edc8-fba6-4a72-949e-2a7519d19557</t>
-  </si>
-  <si>
-    <t>646ec923-34d3-4b18-bc9d-c5936d0ddb22</t>
-  </si>
-  <si>
-    <t>59ff77f2-dc07-4bf0-be38-f0a86f2dedb4</t>
-  </si>
-  <si>
     <t>69eee2a3-69ac-4b50-bf99-41bdfeb81940</t>
   </si>
   <si>
+    <t>dd8404a3-bb79-482b-a458-07dd346e97ce</t>
+  </si>
+  <si>
+    <t>f71d3d44-562f-4079-a01f-b7954d2e3bff</t>
+  </si>
+  <si>
+    <t>e76fdb5e-a9a8-4485-b797-b67c1437b005</t>
+  </si>
+  <si>
+    <t>cfe14a38-1689-4784-a2a5-bbb49da847bf</t>
+  </si>
+  <si>
+    <t>82004687-888b-49c7-96fc-9644e1b663e8</t>
+  </si>
+  <si>
     <t>21d5a776-be4e-4017-aae3-668a7f73af37</t>
   </si>
   <si>
-    <t>e76fdb5e-a9a8-4485-b797-b67c1437b005</t>
+    <t>84549ead-06e3-4700-b16d-fbac46edfa8c</t>
   </si>
   <si>
     <t>08d5398e-bc13-44b8-87ca-301471b70666</t>
   </si>
   <si>
-    <t>84549ead-06e3-4700-b16d-fbac46edfa8c</t>
-  </si>
-  <si>
     <t>9e518af7-7460-468a-a7af-44b661230725</t>
   </si>
   <si>
-    <t>82004687-888b-49c7-96fc-9644e1b663e8</t>
-  </si>
-  <si>
-    <t>f71d3d44-562f-4079-a01f-b7954d2e3bff</t>
-  </si>
-  <si>
-    <t>cfe14a38-1689-4784-a2a5-bbb49da847bf</t>
-  </si>
-  <si>
-    <t>dd8404a3-bb79-482b-a458-07dd346e97ce</t>
+    <t>a6263f96-67c3-4bc2-a8f7-2d8acb1e9aac</t>
+  </si>
+  <si>
+    <t>72bb1fc6-387f-4803-b509-9e52b3086ef7</t>
+  </si>
+  <si>
+    <t>77272765-1f0e-4386-8623-d2d3792e9d31</t>
+  </si>
+  <si>
+    <t>c5ea6189-2fa4-4a15-a533-d2728fd7b5d7</t>
+  </si>
+  <si>
+    <t>0ed19166-6db9-458c-8368-6c8708ea671e</t>
+  </si>
+  <si>
+    <t>8a4b1a9b-c806-49a4-8310-8112f7eb6282</t>
+  </si>
+  <si>
+    <t>ec4e5dfd-0fef-4333-932f-cb23348dbb99</t>
   </si>
   <si>
     <t>2cfadde1-08f8-4818-a05b-d7112cbec00f</t>
   </si>
   <si>
-    <t>77272765-1f0e-4386-8623-d2d3792e9d31</t>
-  </si>
-  <si>
-    <t>72bb1fc6-387f-4803-b509-9e52b3086ef7</t>
-  </si>
-  <si>
-    <t>a6263f96-67c3-4bc2-a8f7-2d8acb1e9aac</t>
+    <t>0a568782-098d-411c-b3a6-3451ee4b0e40</t>
   </si>
   <si>
     <t>771c7171-5783-4135-a60c-fbc64223f29c</t>
   </si>
   <si>
-    <t>8a4b1a9b-c806-49a4-8310-8112f7eb6282</t>
-  </si>
-  <si>
-    <t>0ed19166-6db9-458c-8368-6c8708ea671e</t>
-  </si>
-  <si>
-    <t>ec4e5dfd-0fef-4333-932f-cb23348dbb99</t>
-  </si>
-  <si>
-    <t>c5ea6189-2fa4-4a15-a533-d2728fd7b5d7</t>
-  </si>
-  <si>
-    <t>0a568782-098d-411c-b3a6-3451ee4b0e40</t>
+    <t>0afa79ef-9e2b-40e0-b74f-2a268de35be6</t>
+  </si>
+  <si>
+    <t>67411823-7bc5-4892-bef5-7765708e4a31</t>
+  </si>
+  <si>
+    <t>71a06067-4003-4d41-9ccf-f1a49cd2d655</t>
+  </si>
+  <si>
+    <t>07c6480a-52ec-4f70-b862-78ac439700f8</t>
+  </si>
+  <si>
+    <t>dad272bc-3d45-41a7-8cce-9acb75e5944d</t>
   </si>
   <si>
     <t>cdd82576-4706-42b2-9901-59288a39fc99</t>
   </si>
   <si>
-    <t>07c6480a-52ec-4f70-b862-78ac439700f8</t>
-  </si>
-  <si>
     <t>12ad66a6-955b-4595-a5a6-8da14068d918</t>
   </si>
   <si>
+    <t>f8ba47ef-7c36-4f25-8fbf-d74b4fb57795</t>
+  </si>
+  <si>
     <t>9d60be92-fb7b-4b94-9f22-70648342427d</t>
   </si>
   <si>
-    <t>0afa79ef-9e2b-40e0-b74f-2a268de35be6</t>
-  </si>
-  <si>
-    <t>f8ba47ef-7c36-4f25-8fbf-d74b4fb57795</t>
-  </si>
-  <si>
-    <t>dad272bc-3d45-41a7-8cce-9acb75e5944d</t>
-  </si>
-  <si>
-    <t>71a06067-4003-4d41-9ccf-f1a49cd2d655</t>
+    <t>a97a7a66-28ec-49d9-be25-28b84fababf5</t>
   </si>
   <si>
     <t>187f9026-e464-40b1-be39-c33c938a6506</t>
   </si>
   <si>
-    <t>67411823-7bc5-4892-bef5-7765708e4a31</t>
-  </si>
-  <si>
-    <t>a97a7a66-28ec-49d9-be25-28b84fababf5</t>
+    <t>45de816d-89d9-4cb2-9b15-94def4b4f233</t>
+  </si>
+  <si>
+    <t>36f1d211-a4ac-4fcd-b60e-b5d879c14348</t>
+  </si>
+  <si>
+    <t>bef3933b-1491-4054-b524-ee848fd7d9bb</t>
+  </si>
+  <si>
+    <t>6bfa313f-de58-4d5f-95cb-daf9a0b64127</t>
+  </si>
+  <si>
+    <t>6ffd6833-10e9-4093-9dd1-67010134642f</t>
   </si>
   <si>
     <t>7a1629f7-2625-4955-8bed-075ae9724814</t>
   </si>
   <si>
-    <t>6ffd6833-10e9-4093-9dd1-67010134642f</t>
+    <t>f5d53e4d-c3ba-44e6-a1dd-b087680f2e90</t>
+  </si>
+  <si>
+    <t>edf370af-f483-4d65-8646-69fa8af1d520</t>
+  </si>
+  <si>
+    <t>7e30dcfb-b5f0-47f6-9ab3-7c29bfb8e860</t>
+  </si>
+  <si>
+    <t>3efffa7a-7d1c-417f-bbf4-053e80a84ebd</t>
+  </si>
+  <si>
+    <t>58ce156d-8fe6-4f75-9e3a-73b28069df42</t>
+  </si>
+  <si>
+    <t>f38aafbf-cd75-4bfd-b512-dd98dfaa2cf6</t>
+  </si>
+  <si>
+    <t>e258e763-43c4-4bef-b223-0ac855b23cea</t>
+  </si>
+  <si>
+    <t>9d77f9f6-84ce-48a6-b342-20a32771f8e3</t>
+  </si>
+  <si>
+    <t>2c62fda4-189b-4254-9160-124e95ea1789</t>
+  </si>
+  <si>
+    <t>19d773d0-795e-410c-a471-ef89c5e1c852</t>
+  </si>
+  <si>
+    <t>cf003aca-8e47-4bf8-8ad6-8f3e6edd653e</t>
+  </si>
+  <si>
+    <t>f96d43c5-322d-4d46-ab7f-a418d8384070</t>
+  </si>
+  <si>
+    <t>32007fb7-6c6f-45a8-9367-6cce6149a54c</t>
+  </si>
+  <si>
+    <t>3eb23ab5-e311-47a0-ae00-baef94d56052</t>
+  </si>
+  <si>
+    <t>47413072-31e0-4fb8-af1d-aa8f830becfc</t>
+  </si>
+  <si>
+    <t>5741d897-8f4b-4aba-976e-be1ec160184a</t>
+  </si>
+  <si>
+    <t>9981928d-9dc1-4d39-847c-9ea2f54988ac</t>
+  </si>
+  <si>
+    <t>3c653da7-357e-45ed-a14e-e1f60423a8e3</t>
   </si>
   <si>
     <t>170571cf-c646-4846-8085-2855cb48c94c</t>
   </si>
   <si>
-    <t>6bfa313f-de58-4d5f-95cb-daf9a0b64127</t>
-  </si>
-  <si>
-    <t>2c62fda4-189b-4254-9160-124e95ea1789</t>
+    <t>e86ac7bd-038f-43cf-936a-a8cc687db2a8</t>
+  </si>
+  <si>
+    <t>260b91de-0558-47b0-877f-cd632f772fd5</t>
+  </si>
+  <si>
+    <t>e76e4bbb-f42b-4d97-9406-4447331f1611</t>
+  </si>
+  <si>
+    <t>63aa755c-fa6c-4ece-a5a3-1cf08d845487</t>
   </si>
   <si>
     <t>fd3b7738-3726-4374-a271-3c011bc002ef</t>
   </si>
   <si>
-    <t>edf370af-f483-4d65-8646-69fa8af1d520</t>
-  </si>
-  <si>
-    <t>19d773d0-795e-410c-a471-ef89c5e1c852</t>
+    <t>e5e782b4-8cfa-4628-b994-7175b0e34de0</t>
+  </si>
+  <si>
+    <t>dcb9eca3-de8d-46eb-8a23-252330b91054</t>
+  </si>
+  <si>
+    <t>0d262439-0a58-4a79-8451-56456926c264</t>
+  </si>
+  <si>
+    <t>211d9d4a-5ca8-452a-9171-7bbc4472f04b</t>
   </si>
   <si>
     <t>060c3beb-824c-4a83-a0a5-33745086b001</t>
   </si>
   <si>
-    <t>63aa755c-fa6c-4ece-a5a3-1cf08d845487</t>
-  </si>
-  <si>
-    <t>36f1d211-a4ac-4fcd-b60e-b5d879c14348</t>
-  </si>
-  <si>
-    <t>9981928d-9dc1-4d39-847c-9ea2f54988ac</t>
-  </si>
-  <si>
-    <t>0d262439-0a58-4a79-8451-56456926c264</t>
-  </si>
-  <si>
-    <t>f96d43c5-322d-4d46-ab7f-a418d8384070</t>
-  </si>
-  <si>
-    <t>e86ac7bd-038f-43cf-936a-a8cc687db2a8</t>
-  </si>
-  <si>
-    <t>cf003aca-8e47-4bf8-8ad6-8f3e6edd653e</t>
-  </si>
-  <si>
-    <t>9d77f9f6-84ce-48a6-b342-20a32771f8e3</t>
-  </si>
-  <si>
-    <t>bef3933b-1491-4054-b524-ee848fd7d9bb</t>
-  </si>
-  <si>
-    <t>e76e4bbb-f42b-4d97-9406-4447331f1611</t>
-  </si>
-  <si>
-    <t>211d9d4a-5ca8-452a-9171-7bbc4472f04b</t>
-  </si>
-  <si>
-    <t>7e30dcfb-b5f0-47f6-9ab3-7c29bfb8e860</t>
-  </si>
-  <si>
-    <t>32007fb7-6c6f-45a8-9367-6cce6149a54c</t>
-  </si>
-  <si>
-    <t>47413072-31e0-4fb8-af1d-aa8f830becfc</t>
-  </si>
-  <si>
-    <t>f38aafbf-cd75-4bfd-b512-dd98dfaa2cf6</t>
-  </si>
-  <si>
-    <t>260b91de-0558-47b0-877f-cd632f772fd5</t>
-  </si>
-  <si>
-    <t>e258e763-43c4-4bef-b223-0ac855b23cea</t>
-  </si>
-  <si>
-    <t>3efffa7a-7d1c-417f-bbf4-053e80a84ebd</t>
-  </si>
-  <si>
-    <t>f5d53e4d-c3ba-44e6-a1dd-b087680f2e90</t>
-  </si>
-  <si>
-    <t>5741d897-8f4b-4aba-976e-be1ec160184a</t>
-  </si>
-  <si>
-    <t>3eb23ab5-e311-47a0-ae00-baef94d56052</t>
-  </si>
-  <si>
-    <t>45de816d-89d9-4cb2-9b15-94def4b4f233</t>
-  </si>
-  <si>
-    <t>e5e782b4-8cfa-4628-b994-7175b0e34de0</t>
-  </si>
-  <si>
-    <t>58ce156d-8fe6-4f75-9e3a-73b28069df42</t>
-  </si>
-  <si>
-    <t>3c653da7-357e-45ed-a14e-e1f60423a8e3</t>
-  </si>
-  <si>
-    <t>dcb9eca3-de8d-46eb-8a23-252330b91054</t>
+    <t>1aba4333-bad7-4087-b179-9e7b2b8148c8</t>
+  </si>
+  <si>
+    <t>f99b1b79-7158-4ae7-80eb-609f5101109b</t>
+  </si>
+  <si>
+    <t>02fce76c-1260-42e1-bf7e-80a0474dbaa9</t>
+  </si>
+  <si>
+    <t>448168da-cd91-433b-8bb0-a8e2c834b09f</t>
+  </si>
+  <si>
+    <t>b5ffb756-3dcd-491c-b565-ffea5dd1253d</t>
+  </si>
+  <si>
+    <t>c979689c-b171-489e-81fe-34355d76b900</t>
+  </si>
+  <si>
+    <t>9300a0a6-6813-444a-984b-28069140a283</t>
+  </si>
+  <si>
+    <t>cb6311dd-5ea5-43c7-8297-3b8e4a88fe18</t>
+  </si>
+  <si>
+    <t>020e3175-851a-4805-87aa-512ee3096e14</t>
+  </si>
+  <si>
+    <t>168278eb-e8bc-4a46-b26b-94efbb0299b5</t>
   </si>
   <si>
     <t>02a9977b-c1d5-49e0-99dc-19ea351c10f5</t>
   </si>
   <si>
+    <t>5ff55565-ea21-4a2b-89c3-c65abc6d8ce5</t>
+  </si>
+  <si>
+    <t>76af1d5d-bbbc-46ad-9b15-ebd135bb9681</t>
+  </si>
+  <si>
+    <t>172e9e7d-06cd-4167-9a87-7066e25f9b34</t>
+  </si>
+  <si>
+    <t>a4e943a3-b793-42df-a009-f62c139c4d51</t>
+  </si>
+  <si>
+    <t>6ab67570-2467-46f5-8c69-aa0607d80598</t>
+  </si>
+  <si>
+    <t>699f8832-78c8-4682-a67d-f4ba248cd694</t>
+  </si>
+  <si>
+    <t>8916bb5a-a71e-470e-8e42-b6cce176ce75</t>
+  </si>
+  <si>
+    <t>89bdf2a2-6f66-4f57-8eb3-8e944263bd08</t>
+  </si>
+  <si>
+    <t>ad5fdf9a-6e56-4f89-916b-a7c053779063</t>
+  </si>
+  <si>
+    <t>8660f80d-970f-486b-b45e-9e127c9854b5</t>
+  </si>
+  <si>
+    <t>35c9e8eb-27aa-46d5-9a2f-6bfa8be1d8ef</t>
+  </si>
+  <si>
+    <t>3db827e1-c64f-4a01-b9ac-bec676d32380</t>
+  </si>
+  <si>
+    <t>d9f5e542-3245-4c55-b271-3200c2651c25</t>
+  </si>
+  <si>
+    <t>59aae588-31e1-447f-a132-516d7e4dd1aa</t>
+  </si>
+  <si>
+    <t>33a0c64a-ba3b-47ff-ac0e-f231fa47f907</t>
+  </si>
+  <si>
+    <t>369802d5-3c4d-405e-a212-0cb17cf2b319</t>
+  </si>
+  <si>
+    <t>1a39a48b-5866-4aad-9001-472107080a65</t>
+  </si>
+  <si>
+    <t>db47ba44-7171-4262-a244-a3d23b274551</t>
+  </si>
+  <si>
+    <t>63c7bcff-f3cc-41ed-861b-b2311ac7124e</t>
+  </si>
+  <si>
+    <t>5b241306-964f-4336-9595-1edca69006f1</t>
+  </si>
+  <si>
+    <t>386f1219-e161-4582-8664-c814c7c531c3</t>
+  </si>
+  <si>
+    <t>1a96945b-937f-4e34-9774-f5b235c631a4</t>
+  </si>
+  <si>
+    <t>23cc5646-d288-455a-8309-a0710a29f7a0</t>
+  </si>
+  <si>
+    <t>878604cb-faab-45ff-aa50-1f012281d7e0</t>
+  </si>
+  <si>
+    <t>6940b588-ec7a-4859-90f2-f7bd83256af8</t>
+  </si>
+  <si>
+    <t>ca4dba71-ab3f-4d8c-b480-618ca9c948ff</t>
+  </si>
+  <si>
+    <t>e9b4201f-3e62-4ce8-bfd0-922bd51404b3</t>
+  </si>
+  <si>
+    <t>ed5fb87b-a1f6-427a-9d20-1294df424c10</t>
+  </si>
+  <si>
+    <t>38ef7f80-28a1-42b5-8e8d-04ae5e7ddf5a</t>
+  </si>
+  <si>
+    <t>387152e1-70d3-4020-9bae-e6aa054272ef</t>
+  </si>
+  <si>
+    <t>04c7baba-0577-4228-a6d4-0021bfa53eb1</t>
+  </si>
+  <si>
+    <t>d2c48084-a486-4459-a779-f9ae23ee0ca5</t>
+  </si>
+  <si>
+    <t>e38249b6-79bc-40e5-bc52-0ca5e36bf6bc</t>
+  </si>
+  <si>
+    <t>d57d8259-5eba-4bc4-a880-a2e8d97cea8f</t>
+  </si>
+  <si>
+    <t>c208f18c-2e5d-4970-b036-ae16f81620c9</t>
+  </si>
+  <si>
+    <t>abd190d9-59a7-4753-904e-502c9f2dbbf2</t>
+  </si>
+  <si>
+    <t>7f7ddce9-efb2-445d-b475-8942a226b6cd</t>
+  </si>
+  <si>
+    <t>6d4e7221-0b65-489a-a5c1-7ee65f49047b</t>
+  </si>
+  <si>
+    <t>df55cc76-7eca-44e7-be85-736479f1445b</t>
+  </si>
+  <si>
     <t>0fa62880-9251-474f-afd9-bfa2f5b3ca07</t>
   </si>
   <si>
-    <t>5ff55565-ea21-4a2b-89c3-c65abc6d8ce5</t>
-  </si>
-  <si>
-    <t>5b241306-964f-4336-9595-1edca69006f1</t>
-  </si>
-  <si>
-    <t>d2c48084-a486-4459-a779-f9ae23ee0ca5</t>
-  </si>
-  <si>
-    <t>04c7baba-0577-4228-a6d4-0021bfa53eb1</t>
-  </si>
-  <si>
-    <t>7f7ddce9-efb2-445d-b475-8942a226b6cd</t>
-  </si>
-  <si>
-    <t>df55cc76-7eca-44e7-be85-736479f1445b</t>
-  </si>
-  <si>
-    <t>c979689c-b171-489e-81fe-34355d76b900</t>
-  </si>
-  <si>
-    <t>448168da-cd91-433b-8bb0-a8e2c834b09f</t>
-  </si>
-  <si>
-    <t>020e3175-851a-4805-87aa-512ee3096e14</t>
+    <t>0fc021c9-0dfe-4c0a-8157-1803dbde391f</t>
+  </si>
+  <si>
+    <t>c26966a2-cff3-4c98-a736-6bf469e50268</t>
+  </si>
+  <si>
+    <t>14fc66a0-1af7-4bbb-a6e3-a685910d6ac2</t>
+  </si>
+  <si>
+    <t>a9443188-23ae-41d2-93c6-8707c37539b1</t>
+  </si>
+  <si>
+    <t>357c9ce5-f247-45b9-ad48-6bc4cfb561e0</t>
+  </si>
+  <si>
+    <t>76490d78-8ebb-44f8-b95a-5d66de30f934</t>
+  </si>
+  <si>
+    <t>c873af48-b59f-48af-a0a9-70171c1144f6</t>
+  </si>
+  <si>
+    <t>75980f41-4033-4dd5-aca3-e3db0d9c4055</t>
+  </si>
+  <si>
+    <t>0a1de85a-63f3-4db8-b3d1-5ecec67a2b3e</t>
+  </si>
+  <si>
+    <t>11d195b4-4f96-45e4-8a63-b1eb9a460364</t>
   </si>
   <si>
     <t>3b97c7f6-00a6-4eb0-a1ae-8bb1da0875ec</t>
   </si>
   <si>
-    <t>9300a0a6-6813-444a-984b-28069140a283</t>
-  </si>
-  <si>
-    <t>0a1de85a-63f3-4db8-b3d1-5ecec67a2b3e</t>
-  </si>
-  <si>
-    <t>3db827e1-c64f-4a01-b9ac-bec676d32380</t>
-  </si>
-  <si>
-    <t>0fc021c9-0dfe-4c0a-8157-1803dbde391f</t>
-  </si>
-  <si>
-    <t>387152e1-70d3-4020-9bae-e6aa054272ef</t>
-  </si>
-  <si>
-    <t>168278eb-e8bc-4a46-b26b-94efbb0299b5</t>
-  </si>
-  <si>
-    <t>cb6311dd-5ea5-43c7-8297-3b8e4a88fe18</t>
-  </si>
-  <si>
-    <t>6d4e7221-0b65-489a-a5c1-7ee65f49047b</t>
-  </si>
-  <si>
-    <t>02fce76c-1260-42e1-bf7e-80a0474dbaa9</t>
-  </si>
-  <si>
-    <t>a4e943a3-b793-42df-a009-f62c139c4d51</t>
-  </si>
-  <si>
-    <t>ed5fb87b-a1f6-427a-9d20-1294df424c10</t>
-  </si>
-  <si>
-    <t>6940b588-ec7a-4859-90f2-f7bd83256af8</t>
-  </si>
-  <si>
-    <t>db47ba44-7171-4262-a244-a3d23b274551</t>
-  </si>
-  <si>
-    <t>abd190d9-59a7-4753-904e-502c9f2dbbf2</t>
-  </si>
-  <si>
-    <t>11d195b4-4f96-45e4-8a63-b1eb9a460364</t>
-  </si>
-  <si>
-    <t>33a0c64a-ba3b-47ff-ac0e-f231fa47f907</t>
-  </si>
-  <si>
-    <t>699f8832-78c8-4682-a67d-f4ba248cd694</t>
-  </si>
-  <si>
-    <t>8916bb5a-a71e-470e-8e42-b6cce176ce75</t>
-  </si>
-  <si>
-    <t>23cc5646-d288-455a-8309-a0710a29f7a0</t>
-  </si>
-  <si>
-    <t>76490d78-8ebb-44f8-b95a-5d66de30f934</t>
-  </si>
-  <si>
-    <t>89bdf2a2-6f66-4f57-8eb3-8e944263bd08</t>
-  </si>
-  <si>
-    <t>172e9e7d-06cd-4167-9a87-7066e25f9b34</t>
-  </si>
-  <si>
-    <t>6ab67570-2467-46f5-8c69-aa0607d80598</t>
-  </si>
-  <si>
-    <t>1a39a48b-5866-4aad-9001-472107080a65</t>
-  </si>
-  <si>
-    <t>ca4dba71-ab3f-4d8c-b480-618ca9c948ff</t>
-  </si>
-  <si>
-    <t>35c9e8eb-27aa-46d5-9a2f-6bfa8be1d8ef</t>
-  </si>
-  <si>
-    <t>1a96945b-937f-4e34-9774-f5b235c631a4</t>
-  </si>
-  <si>
-    <t>1aba4333-bad7-4087-b179-9e7b2b8148c8</t>
-  </si>
-  <si>
-    <t>386f1219-e161-4582-8664-c814c7c531c3</t>
-  </si>
-  <si>
-    <t>878604cb-faab-45ff-aa50-1f012281d7e0</t>
-  </si>
-  <si>
-    <t>c208f18c-2e5d-4970-b036-ae16f81620c9</t>
-  </si>
-  <si>
-    <t>c26966a2-cff3-4c98-a736-6bf469e50268</t>
-  </si>
-  <si>
-    <t>f99b1b79-7158-4ae7-80eb-609f5101109b</t>
-  </si>
-  <si>
-    <t>d57d8259-5eba-4bc4-a880-a2e8d97cea8f</t>
-  </si>
-  <si>
-    <t>76af1d5d-bbbc-46ad-9b15-ebd135bb9681</t>
-  </si>
-  <si>
-    <t>38ef7f80-28a1-42b5-8e8d-04ae5e7ddf5a</t>
-  </si>
-  <si>
-    <t>75980f41-4033-4dd5-aca3-e3db0d9c4055</t>
-  </si>
-  <si>
-    <t>b5ffb756-3dcd-491c-b565-ffea5dd1253d</t>
-  </si>
-  <si>
-    <t>a9443188-23ae-41d2-93c6-8707c37539b1</t>
-  </si>
-  <si>
-    <t>e9b4201f-3e62-4ce8-bfd0-922bd51404b3</t>
-  </si>
-  <si>
-    <t>8660f80d-970f-486b-b45e-9e127c9854b5</t>
-  </si>
-  <si>
-    <t>d9f5e542-3245-4c55-b271-3200c2651c25</t>
-  </si>
-  <si>
-    <t>e38249b6-79bc-40e5-bc52-0ca5e36bf6bc</t>
-  </si>
-  <si>
-    <t>59aae588-31e1-447f-a132-516d7e4dd1aa</t>
-  </si>
-  <si>
-    <t>369802d5-3c4d-405e-a212-0cb17cf2b319</t>
-  </si>
-  <si>
-    <t>63c7bcff-f3cc-41ed-861b-b2311ac7124e</t>
-  </si>
-  <si>
-    <t>357c9ce5-f247-45b9-ad48-6bc4cfb561e0</t>
-  </si>
-  <si>
-    <t>14fc66a0-1af7-4bbb-a6e3-a685910d6ac2</t>
-  </si>
-  <si>
-    <t>ad5fdf9a-6e56-4f89-916b-a7c053779063</t>
-  </si>
-  <si>
-    <t>c873af48-b59f-48af-a0a9-70171c1144f6</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'onboarding-skip', 'handleConfirmDeleteDesafioSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
+    <t>{'home-hall', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleDeleteDesafioSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall'}</t>
   </si>
   <si>
     <t>{'home-hall'}</t>
   </si>
   <si>
-    <t>{'click em trilhas-lxp', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall', 'ver canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Profile'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'handle-busc-semantica-hall', 'home-hall'}</t>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Community', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleCloseDesafioModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'onboarding-to Community', 'onboarding-skip', 'criar conteúdo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'handleViewDesafioSRG-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'handleViewDesafioSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Community', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'onboardingAdmin-skip', 'criar conteúdo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-to Step 3', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'handle-busc-semantica-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'seta carrossel canais-lxp', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
   </si>
   <si>
     <t>{'onboardingAdmin-skip', 'home-hall'}</t>
   </si>
   <si>
-    <t>{'onboardingAdmin-to Step 3', 'home-hall', 'onboardingAdmin-to Step 2'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall', 'modal-SRG', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'onboardingAdmin-to Step 2', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handleOpenModalSRG-hall', 'home-hall-manager', 'modal-SRG', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleViewDesafioSRG-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handle-busc-semantica-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'home-hall', 'onboardingAdmin-to Step 2', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4'}</t>
+  </si>
+  <si>
+    <t>{'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall-manager', 'home-hall', 'seta carrossel canais-lxp', 'handleViewDesafioSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleViewDesafioSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'handleCloseDesafioModalSRG-hall', 'handleViewDesafioSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
   </si>
   <si>
     <t>{'onboardingAdmin-skip', 'home-hall', 'modal-SRG', 'handleOpenModalSRG-hall'}</t>
   </si>
   <si>
-    <t>{'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'handleOpenModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall', 'modal-SRG'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'onboarding-to Challenge', 'acessar conteúdos em vídeo-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'handle-busc-semantica-hall', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 1', 'onboarding-to Step 3', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Step 3', 'onboarding-to Step 2', 'onboarding-to Profile'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'criar conteúdo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'onboarding-skip', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall', 'acessar meus desafios-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-skip', 'home-hall', 'acessar meus desafios-hall', 'onboarding-to Profile'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'criar conteúdo-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboarding-to Step 2', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'onboarding-to Step 3'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'handle-busc-semantica-hall', 'clickNotification-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'onboardingAdmin-to Step 2', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'seta carrossel canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'botão carrossel meus desafios-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-skip', 'onboarding-to Community', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-to Step 3', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 2', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 2', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'ver canais-lxp', 'handle-busc-semantica-hall', 'onboarding-to Step 3', 'onboarding-skip'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'home-hall-manager', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'home-hall', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall', 'ver canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-skip', 'onboarding-to Profile'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-skip', 'onboarding-to Challenge', 'acessar meus desafios-hall', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboarding-to Profile', 'handleViewDesafioSRG-hall', 'onboarding-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboarding-to Profile', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'onboarding-to Step 3', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleEditDetaisSRG-hall', 'handleOpenModalSRG-hall', 'modal-SRG', 'handleDeleteDesafioSRG-hall', 'handleViewDesafioSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'botão carrossel meus desafios-hall', 'home-hall', 'handleViewDesafioSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'criar conteúdo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'handle-busc-semantica-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'handle-busc-semantica-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'home-hall', 'home-hall-manager'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboarding-to Community', 'acessar conteúdos em vídeo-lxp', 'onboarding-to Step 2', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'onboarding-to Step 3', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'ver canais-lxp', 'acessar conteúdos em vídeo-lxp', 'onboardingAdmin-to Step 2', 'onboardingAdmin-skip', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleDeleteDesafioSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'handleSkipPrezziSRG-hall', 'modal-SRG', 'handleOpenModalSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'click em trilhas-lxp', 'home-hall', 'seta carrossel canais-lxp'}</t>
-  </si>
-  <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar meus desafios-hall', 'modal-SRG', 'home-hall-manager', 'handleOpenModalSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleViewDesafioSRG-hall', 'handleOpenModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'handleViewDesafioSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'onboarding-to Community', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'onboarding-to Profile', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'onboarding-to Profile', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Step 2', 'onboarding-to Step 1'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'handleCloseDesafioModalSRG-hall', 'home-hall', 'modal-SRG', 'handleOpenModalSRG-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'onboarding-skip', 'click em trilhas-lxp', 'onboarding-to Challenge', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'criar conteúdo-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'criar conteúdo-lxp', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'handle-busc-semantica-hall', 'home-hall', 'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'onboarding-to Profile', 'acessar meus desafios-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'handleSkipPrezziSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'onboarding-to Step 2', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall', 'onboardingAdmin-to Step 2', 'handleViewDesafioSRG-hall', 'onboardingAdmin-skip', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'home-hall', 'handle-busc-semantica-hall', 'onboardingAdmin-skip', 'clickNotification-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'seta carrossel canais-lxp', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'home-hall-manager', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleViewDesafioSRG-hall', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'ver canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handle-busc-semantica-hall', 'onboardingAdmin-to Step 2', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'seta carrossel canais-lxp', 'handleViewDesafioSRG-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'onboarding-to Community', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar meus desafios-hall', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'handleViewDesafioSRG-hall', 'onboarding-to Challenge', 'acessar meus desafios-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'ver canais-lxp', 'home-hall', 'handleCloseDesafioModalSRG-hall', 'handle-busc-semantica-hall', 'handleOpenModalSRG-hall', 'criar conteúdo-lxp', 'botão carrossel meus desafios-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'handleViewDesafioSRG-hall', 'onboarding-to Profile', 'acessar meus desafios-hall', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'onboardingAdmin-skip', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Profile', 'onboarding-skip'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'onboardingAdmin-to Step 2', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleViewDesafioSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'handleOpenModalSRG-hall', 'onboardingAdmin-skip', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall-manager', 'home-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'handle-busc-semantica-hall', 'onboarding-to Profile', 'onboarding-skip', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleViewDesafioSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'onboarding-to Profile', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall', 'handleViewDesafioSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'home-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
   </si>
   <si>
     <t>{'onboardingAdmin-skip', 'home-hall', 'home-hall-manager'}</t>
   </si>
   <si>
-    <t>{'click em trilhas-lxp', 'acessar meus desafios-hall', 'acessar conteúdos em vídeo-lxp', 'modal-SRG', 'handleOpenModalSRG-hall', 'home-hall-manager', 'handleOpenPrezziModalSRG-hall', 'handleViewDesafioSRG-hall', 'home-hall', 'handleCloseDesafioModalSRG-hall'}</t>
-  </si>
-  <si>
-    <t>{'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall', 'home-hall', 'clickNotification-hall'}</t>
-  </si>
-  <si>
-    <t>{'onboardingAdmin-skip', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'home-hall-manager'}</t>
+    <t>{'handleSkipPrezziSRG-hall', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'home-hall-manager', 'handleViewDesafioSRG-hall', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleEditDetaisSRG-hall', 'handleViewDesafioSRG-hall', 'handleDeleteDesafioSRG-hall', 'handleOpenModalSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'onboardingAdmin-to Step 2', 'onboardingAdmin-skip', 'onboardingAdmin-to Step 3', 'onboardingAdmin-to Step 4', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleCloseDesafioModalSRG-hall', 'home-hall', 'home-hall-manager', 'handleOpenModalSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'onboardingAdmin-to Step 3', 'acessar meus desafios-hall', 'onboardingAdmin-to Step 4'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'home-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'acessar conteúdos em vídeo-lxp', 'ver canais-lxp', 'home-hall', 'criar conteúdo-lxp', 'click em trilhas-lxp'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'botão carrossel meus desafios-hall', 'handleViewDesafioSRG-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'click em trilhas-lxp', 'acessar conteúdos em vídeo-lxp', 'seta carrossel canais-lxp'}</t>
+  </si>
+  <si>
+    <t>{'handleOpenPrezziModalSRG-hall', 'handleCloseDesafioModalSRG-hall', 'home-hall', 'handleDeleteDesafioSRG-hall', 'handleOpenModalSRG-hall', 'handleConfirmDeleteDesafioSRG-hall', 'acessar meus desafios-hall', 'modal-SRG'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'handle-busc-semantica-hall', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'home-hall', 'click em trilhas-lxp', 'handle-busc-semantica-hall', 'acessar conteúdos em vídeo-lxp'}</t>
+  </si>
+  <si>
+    <t>{'clickNotification-hall', 'home-hall', 'acessar conteúdos em vídeo-lxp', 'acessar meus desafios-hall'}</t>
+  </si>
+  <si>
+    <t>{'onboardingAdmin-skip', 'home-hall', 'acessar conteúdos em vídeo-lxp', 'home-hall-manager'}</t>
+  </si>
+  <si>
+    <t>{'onboarding-to Step 3', 'acessar conteúdos em vídeo-lxp', 'home-hall', 'handleViewDesafioSRG-hall', 'onboarding-to Community', 'handle-busc-semantica-hall', 'acessar meus desafios-hall', 'onboarding-to Step 2'}</t>
+  </si>
+  <si>
+    <t>{'home-hall-manager', 'home-hall'}</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1485,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1499,7 +1496,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1510,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1521,7 +1518,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1532,7 +1529,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1598,7 +1595,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1609,7 +1606,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1620,7 +1617,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1631,7 +1628,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1642,7 +1639,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1664,7 +1661,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1675,7 +1672,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1697,7 +1694,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1719,7 +1716,7 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1730,7 +1727,7 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1741,7 +1738,7 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1752,7 +1749,7 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1763,7 +1760,7 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1785,7 +1782,7 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1840,7 +1837,7 @@
         <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1851,7 +1848,7 @@
         <v>59</v>
       </c>
       <c r="C59" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1862,7 +1859,7 @@
         <v>60</v>
       </c>
       <c r="C60" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1873,7 +1870,7 @@
         <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1884,7 +1881,7 @@
         <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>218</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1895,7 +1892,7 @@
         <v>63</v>
       </c>
       <c r="C63" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1906,7 +1903,7 @@
         <v>64</v>
       </c>
       <c r="C64" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1917,7 +1914,7 @@
         <v>65</v>
       </c>
       <c r="C65" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1950,7 +1947,7 @@
         <v>68</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1961,7 +1958,7 @@
         <v>69</v>
       </c>
       <c r="C69" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1983,7 +1980,7 @@
         <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -2038,7 +2035,7 @@
         <v>76</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -2049,7 +2046,7 @@
         <v>77</v>
       </c>
       <c r="C77" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -2060,7 +2057,7 @@
         <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2071,7 +2068,7 @@
         <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2082,7 +2079,7 @@
         <v>80</v>
       </c>
       <c r="C80" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2104,7 +2101,7 @@
         <v>82</v>
       </c>
       <c r="C82" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2115,7 +2112,7 @@
         <v>83</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2126,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="C84" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2137,7 +2134,7 @@
         <v>85</v>
       </c>
       <c r="C85" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2159,7 +2156,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>180</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2170,7 +2167,7 @@
         <v>88</v>
       </c>
       <c r="C88" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2181,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="C89" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2192,7 +2189,7 @@
         <v>90</v>
       </c>
       <c r="C90" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2203,7 +2200,7 @@
         <v>91</v>
       </c>
       <c r="C91" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2214,7 +2211,7 @@
         <v>92</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2225,7 +2222,7 @@
         <v>93</v>
       </c>
       <c r="C93" t="s">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2236,7 +2233,7 @@
         <v>94</v>
       </c>
       <c r="C94" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2247,7 +2244,7 @@
         <v>95</v>
       </c>
       <c r="C95" t="s">
-        <v>238</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2258,7 +2255,7 @@
         <v>96</v>
       </c>
       <c r="C96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2269,7 +2266,7 @@
         <v>97</v>
       </c>
       <c r="C97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2280,7 +2277,7 @@
         <v>98</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2291,7 +2288,7 @@
         <v>99</v>
       </c>
       <c r="C99" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2302,7 +2299,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2313,7 +2310,7 @@
         <v>101</v>
       </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2324,7 +2321,7 @@
         <v>102</v>
       </c>
       <c r="C102" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2335,7 +2332,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2346,7 +2343,7 @@
         <v>104</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2357,7 +2354,7 @@
         <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2368,7 +2365,7 @@
         <v>106</v>
       </c>
       <c r="C106" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2379,7 +2376,7 @@
         <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>249</v>
+        <v>185</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2390,7 +2387,7 @@
         <v>108</v>
       </c>
       <c r="C108" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2401,7 +2398,7 @@
         <v>109</v>
       </c>
       <c r="C109" t="s">
-        <v>191</v>
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2412,7 +2409,7 @@
         <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2423,7 +2420,7 @@
         <v>111</v>
       </c>
       <c r="C111" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2434,7 +2431,7 @@
         <v>112</v>
       </c>
       <c r="C112" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2445,7 +2442,7 @@
         <v>113</v>
       </c>
       <c r="C113" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2456,7 +2453,7 @@
         <v>114</v>
       </c>
       <c r="C114" t="s">
-        <v>251</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2467,7 +2464,7 @@
         <v>115</v>
       </c>
       <c r="C115" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2478,7 +2475,7 @@
         <v>116</v>
       </c>
       <c r="C116" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2489,7 +2486,7 @@
         <v>117</v>
       </c>
       <c r="C117" t="s">
-        <v>181</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2500,7 +2497,7 @@
         <v>118</v>
       </c>
       <c r="C118" t="s">
-        <v>185</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2511,7 +2508,7 @@
         <v>119</v>
       </c>
       <c r="C119" t="s">
-        <v>180</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2522,7 +2519,7 @@
         <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>254</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2533,7 +2530,7 @@
         <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2544,7 +2541,7 @@
         <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2555,7 +2552,7 @@
         <v>123</v>
       </c>
       <c r="C123" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2566,7 +2563,7 @@
         <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2577,7 +2574,7 @@
         <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>259</v>
+        <v>199</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2588,7 +2585,7 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2599,7 +2596,7 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2610,7 +2607,7 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2621,7 +2618,7 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2632,7 +2629,7 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2643,7 +2640,7 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2654,7 +2651,7 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2665,7 +2662,7 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2676,7 +2673,7 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2687,7 +2684,7 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2698,7 +2695,7 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2709,7 +2706,7 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2720,7 +2717,7 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2731,7 +2728,7 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>188</v>
+        <v>256</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2742,7 +2739,7 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2753,7 +2750,7 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>264</v>
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2764,7 +2761,7 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>180</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2775,7 +2772,7 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2786,7 +2783,7 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>180</v>
+        <v>259</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2797,7 +2794,7 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2808,7 +2805,7 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2819,7 +2816,7 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2830,7 +2827,7 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2841,7 +2838,7 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2852,7 +2849,7 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2863,7 +2860,7 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2874,7 +2871,7 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2885,7 +2882,7 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>180</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2896,7 +2893,7 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2907,7 +2904,7 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2918,7 +2915,7 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2929,7 +2926,7 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2940,7 +2937,7 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>180</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2951,7 +2948,7 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>197</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2962,7 +2959,7 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>192</v>
+        <v>267</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2973,7 +2970,7 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2984,7 +2981,7 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2995,7 +2992,7 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3006,7 +3003,7 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3017,7 +3014,7 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3028,7 +3025,7 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>180</v>
+        <v>239</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3039,7 +3036,7 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3050,7 +3047,7 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3061,7 +3058,7 @@
         <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>272</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3072,7 +3069,7 @@
         <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>197</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3083,7 +3080,7 @@
         <v>171</v>
       </c>
       <c r="C171" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3094,7 +3091,7 @@
         <v>172</v>
       </c>
       <c r="C172" t="s">
-        <v>270</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3105,7 +3102,7 @@
         <v>173</v>
       </c>
       <c r="C173" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3116,7 +3113,7 @@
         <v>174</v>
       </c>
       <c r="C174" t="s">
-        <v>274</v>
+        <v>199</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3127,7 +3124,7 @@
         <v>175</v>
       </c>
       <c r="C175" t="s">
-        <v>218</v>
+        <v>273</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3138,7 +3135,7 @@
         <v>176</v>
       </c>
       <c r="C176" t="s">
-        <v>275</v>
+        <v>180</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3149,7 +3146,7 @@
         <v>177</v>
       </c>
       <c r="C177" t="s">
-        <v>218</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3160,7 +3157,7 @@
         <v>178</v>
       </c>
       <c r="C178" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3171,7 +3168,7 @@
         <v>179</v>
       </c>
       <c r="C179" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
